--- a/org.metaborg.lang.tiger.example/microbenchmarks/graalvm-timings.xlsx
+++ b/org.metaborg.lang.tiger.example/microbenchmarks/graalvm-timings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="32740" windowHeight="20540" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="32740" windowHeight="20540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="branching" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
   <si>
     <t>Exc native</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>ec7f9cbb -- opt list match</t>
+  </si>
+  <si>
+    <t>9fc5904f -- call target align</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>towers!$B$1:$B$2</c:f>
+              <c:f>list!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -193,72 +196,72 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>towers!$B$3:$B$23</c:f>
+              <c:f>list!$B$3:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>13874.0</c:v>
+                  <c:v>22269.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4096.0</c:v>
+                  <c:v>7481.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>399.0</c:v>
+                  <c:v>204.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>237.0</c:v>
+                  <c:v>343.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>248.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1368.0</c:v>
+                  <c:v>214.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>265.0</c:v>
+                  <c:v>203.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>317.0</c:v>
+                  <c:v>284.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>566.0</c:v>
+                  <c:v>2054.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>265.0</c:v>
+                  <c:v>207.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>260.0</c:v>
+                  <c:v>1067.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>770.0</c:v>
+                  <c:v>457.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>256.0</c:v>
+                  <c:v>211.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>256.0</c:v>
+                  <c:v>211.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>267.0</c:v>
+                  <c:v>213.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3368.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>273.0</c:v>
+                  <c:v>548.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>271.0</c:v>
+                  <c:v>223.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>632.0</c:v>
+                  <c:v>226.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>268.0</c:v>
+                  <c:v>228.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>258.0</c:v>
+                  <c:v>655.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -270,7 +273,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>towers!$C$1:$C$2</c:f>
+              <c:f>list!$C$1:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -296,72 +299,175 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>towers!$C$3:$C$23</c:f>
+              <c:f>list!$C$3:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>10548.0</c:v>
+                  <c:v>17204.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2616.0</c:v>
+                  <c:v>5917.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>218.0</c:v>
+                  <c:v>171.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>221.0</c:v>
+                  <c:v>178.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>383.0</c:v>
+                  <c:v>189.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>228.0</c:v>
+                  <c:v>392.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>487.0</c:v>
+                  <c:v>173.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>293.0</c:v>
+                  <c:v>229.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>232.0</c:v>
+                  <c:v>201.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2855.0</c:v>
+                  <c:v>2201.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>227.0</c:v>
+                  <c:v>761.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>645.0</c:v>
+                  <c:v>174.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>233.0</c:v>
+                  <c:v>176.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>240.0</c:v>
+                  <c:v>184.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>569.0</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>240.0</c:v>
+                  <c:v>187.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>245.0</c:v>
+                  <c:v>196.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>242.0</c:v>
+                  <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>643.0</c:v>
+                  <c:v>195.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>245.0</c:v>
+                  <c:v>3807.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>245.0</c:v>
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Exc native</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9fc5904f -- call target align</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>list!$D$3:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>19046.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8140.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>364.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1838.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>838.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>554.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>206.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>551.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3974.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,11 +483,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1699137808"/>
-        <c:axId val="-2134288768"/>
+        <c:axId val="-1464429856"/>
+        <c:axId val="-1464436128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1699137808"/>
+        <c:axId val="-1464429856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,7 +529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134288768"/>
+        <c:crossAx val="-1464436128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -431,10 +537,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134288768"/>
+        <c:axId val="-1464436128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3000.0"/>
+          <c:max val="600.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -482,7 +588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1699137808"/>
+        <c:crossAx val="-1464429856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -619,7 +725,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'while-loop'!$B$1:$B$2</c:f>
+              <c:f>permute!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -645,72 +751,72 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'while-loop'!$B$3:$B$23</c:f>
+              <c:f>permute!$B$3:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6864.0</c:v>
+                  <c:v>9935.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020.0</c:v>
+                  <c:v>9352.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.0</c:v>
+                  <c:v>340.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.0</c:v>
+                  <c:v>717.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.0</c:v>
+                  <c:v>222.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.0</c:v>
+                  <c:v>312.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.0</c:v>
+                  <c:v>187.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.0</c:v>
+                  <c:v>190.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.0</c:v>
+                  <c:v>372.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.0</c:v>
+                  <c:v>190.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.0</c:v>
+                  <c:v>193.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.0</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.0</c:v>
+                  <c:v>228.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.0</c:v>
+                  <c:v>214.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.0</c:v>
+                  <c:v>443.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.0</c:v>
+                  <c:v>204.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>175.0</c:v>
+                  <c:v>207.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27.0</c:v>
+                  <c:v>211.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.0</c:v>
+                  <c:v>203.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,7 +828,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'while-loop'!$C$1:$C$2</c:f>
+              <c:f>permute!$C$1:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -748,72 +854,175 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'while-loop'!$C$3:$C$23</c:f>
+              <c:f>permute!$C$3:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6414.0</c:v>
+                  <c:v>8514.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1947.0</c:v>
+                  <c:v>8242.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.0</c:v>
+                  <c:v>339.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.0</c:v>
+                  <c:v>689.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.0</c:v>
+                  <c:v>247.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.0</c:v>
+                  <c:v>162.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.0</c:v>
+                  <c:v>159.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.0</c:v>
+                  <c:v>158.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.0</c:v>
+                  <c:v>355.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.0</c:v>
+                  <c:v>157.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.0</c:v>
+                  <c:v>165.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.0</c:v>
+                  <c:v>157.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32.0</c:v>
+                  <c:v>378.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.0</c:v>
+                  <c:v>211.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.0</c:v>
+                  <c:v>202.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.0</c:v>
+                  <c:v>178.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33.0</c:v>
+                  <c:v>248.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.0</c:v>
+                  <c:v>2732.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>149.0</c:v>
+                  <c:v>173.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.0</c:v>
+                  <c:v>163.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.0</c:v>
+                  <c:v>166.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>permute!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Exc native</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9fc5904f -- call target align</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>permute!$D$3:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>12231.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15374.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>397.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>476.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2853.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>181.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,11 +1038,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2133018528"/>
-        <c:axId val="-2133016032"/>
+        <c:axId val="-1614041552"/>
+        <c:axId val="-1519553120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2133018528"/>
+        <c:axId val="-1614041552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +1084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133016032"/>
+        <c:crossAx val="-1519553120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -883,7 +1092,1466 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133016032"/>
+        <c:axId val="-1519553120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1614041552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>queens2!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Exc native</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cccf266127</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>queens2!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8368.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3079.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>421.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3007.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>queens2!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Exc native</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ec7f9cbb -- opt list match</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>queens2!$C$3:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>6426.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2798.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>351.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>356.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2673.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>queens2!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Exc native</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9fc5904f -- call target align</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>queens2!$D$3:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8327.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2683.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>407.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>501.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>418.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5496.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1462319104"/>
+        <c:axId val="-1461997504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1462319104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1461997504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1461997504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1462319104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>towers!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Exc native</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cccf266127</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>towers!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>13874.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>399.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>237.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1368.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>317.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>566.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>770.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3368.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>273.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>271.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>632.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>258.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>towers!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Exc native</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ec7f9cbb -- opt list match</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>towers!$C$3:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10548.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2616.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>383.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>487.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>293.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>232.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2855.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>569.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>643.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>245.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1574281904"/>
+        <c:axId val="-1574279584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1574281904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1574279584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1574279584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1574281904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'while-loop'!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Exc native</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cccf266127</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'while-loop'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>6864.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'while-loop'!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Exc native</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ec7f9cbb -- opt list match</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'while-loop'!$C$3:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>6414.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1947.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1574243360"/>
+        <c:axId val="-1574240608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1574243360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1574240608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1574240608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -934,7 +2602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133018528"/>
+        <c:crossAx val="-1574243360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1095,6 +2763,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2127,7 +3915,1660 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2162,7 +5603,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2460,10 +5901,1950 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C23"/>
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1922</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1597</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2582</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2633</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>8039</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7546</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>1390</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1182</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>267</v>
+      </c>
+      <c r="C5" s="1">
+        <v>226</v>
+      </c>
+      <c r="D5" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>226</v>
+      </c>
+      <c r="C6" s="1">
+        <v>219</v>
+      </c>
+      <c r="D6" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>244</v>
+      </c>
+      <c r="C7" s="1">
+        <v>226</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>248</v>
+      </c>
+      <c r="C8" s="1">
+        <v>341</v>
+      </c>
+      <c r="D8" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>376</v>
+      </c>
+      <c r="C9" s="1">
+        <v>239</v>
+      </c>
+      <c r="D9" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>458</v>
+      </c>
+      <c r="C10" s="1">
+        <v>425</v>
+      </c>
+      <c r="D10" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>246</v>
+      </c>
+      <c r="C11" s="1">
+        <v>469</v>
+      </c>
+      <c r="D11" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>481</v>
+      </c>
+      <c r="C12" s="1">
+        <v>236</v>
+      </c>
+      <c r="D12" s="1">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>298</v>
+      </c>
+      <c r="C13" s="1">
+        <v>305</v>
+      </c>
+      <c r="D13" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>249</v>
+      </c>
+      <c r="C14" s="1">
+        <v>259</v>
+      </c>
+      <c r="D14" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>243</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2025</v>
+      </c>
+      <c r="D15" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>2287</v>
+      </c>
+      <c r="C16" s="1">
+        <v>234</v>
+      </c>
+      <c r="D16" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>236</v>
+      </c>
+      <c r="C17" s="1">
+        <v>239</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>234</v>
+      </c>
+      <c r="C18" s="1">
+        <v>256</v>
+      </c>
+      <c r="D18" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>259</v>
+      </c>
+      <c r="C19" s="1">
+        <v>538</v>
+      </c>
+      <c r="D19" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>603</v>
+      </c>
+      <c r="C20" s="1">
+        <v>227</v>
+      </c>
+      <c r="D20" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>254</v>
+      </c>
+      <c r="C21" s="1">
+        <v>236</v>
+      </c>
+      <c r="D21" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>235</v>
+      </c>
+      <c r="C22" s="1">
+        <v>236</v>
+      </c>
+      <c r="D22" s="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>238</v>
+      </c>
+      <c r="C23" s="1">
+        <v>670</v>
+      </c>
+      <c r="D23" s="1">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>22269</v>
+      </c>
+      <c r="C3" s="1">
+        <v>17204</v>
+      </c>
+      <c r="D3" s="1">
+        <v>19046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>7481</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5917</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>204</v>
+      </c>
+      <c r="C5" s="1">
+        <v>171</v>
+      </c>
+      <c r="D5" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>343</v>
+      </c>
+      <c r="C6" s="1">
+        <v>178</v>
+      </c>
+      <c r="D6" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1">
+        <v>189</v>
+      </c>
+      <c r="D7" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>214</v>
+      </c>
+      <c r="C8" s="1">
+        <v>392</v>
+      </c>
+      <c r="D8" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>203</v>
+      </c>
+      <c r="C9" s="1">
+        <v>173</v>
+      </c>
+      <c r="D9" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>284</v>
+      </c>
+      <c r="C10" s="1">
+        <v>229</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>2054</v>
+      </c>
+      <c r="C11" s="1">
+        <v>201</v>
+      </c>
+      <c r="D11" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>207</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2201</v>
+      </c>
+      <c r="D12" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>1067</v>
+      </c>
+      <c r="C13" s="1">
+        <v>761</v>
+      </c>
+      <c r="D13" s="1">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>457</v>
+      </c>
+      <c r="C14" s="1">
+        <v>174</v>
+      </c>
+      <c r="D14" s="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>211</v>
+      </c>
+      <c r="C15" s="1">
+        <v>176</v>
+      </c>
+      <c r="D15" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>211</v>
+      </c>
+      <c r="C16" s="1">
+        <v>184</v>
+      </c>
+      <c r="D16" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>213</v>
+      </c>
+      <c r="C17" s="1">
+        <v>512</v>
+      </c>
+      <c r="D17" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>220</v>
+      </c>
+      <c r="C18" s="1">
+        <v>187</v>
+      </c>
+      <c r="D18" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>548</v>
+      </c>
+      <c r="C19" s="1">
+        <v>196</v>
+      </c>
+      <c r="D19" s="1">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>223</v>
+      </c>
+      <c r="C20" s="1">
+        <v>185</v>
+      </c>
+      <c r="D20" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>226</v>
+      </c>
+      <c r="C21" s="1">
+        <v>195</v>
+      </c>
+      <c r="D21" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>228</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3807</v>
+      </c>
+      <c r="D22" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>655</v>
+      </c>
+      <c r="C23" s="1">
+        <v>200</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3974</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>9935</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8514</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>9352</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8242</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>340</v>
+      </c>
+      <c r="C5" s="1">
+        <v>339</v>
+      </c>
+      <c r="D5" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>717</v>
+      </c>
+      <c r="C6" s="1">
+        <v>689</v>
+      </c>
+      <c r="D6" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>222</v>
+      </c>
+      <c r="C7" s="1">
+        <v>247</v>
+      </c>
+      <c r="D7" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>312</v>
+      </c>
+      <c r="C8" s="1">
+        <v>162</v>
+      </c>
+      <c r="D8" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>187</v>
+      </c>
+      <c r="C9" s="1">
+        <v>159</v>
+      </c>
+      <c r="D9" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>190</v>
+      </c>
+      <c r="C10" s="1">
+        <v>158</v>
+      </c>
+      <c r="D10" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>372</v>
+      </c>
+      <c r="C11" s="1">
+        <v>355</v>
+      </c>
+      <c r="D11" s="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>190</v>
+      </c>
+      <c r="C12" s="1">
+        <v>157</v>
+      </c>
+      <c r="D12" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>193</v>
+      </c>
+      <c r="C13" s="1">
+        <v>165</v>
+      </c>
+      <c r="D13" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>200</v>
+      </c>
+      <c r="C14" s="1">
+        <v>157</v>
+      </c>
+      <c r="D14" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C15" s="1">
+        <v>378</v>
+      </c>
+      <c r="D15" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>240</v>
+      </c>
+      <c r="C16" s="1">
+        <v>211</v>
+      </c>
+      <c r="D16" s="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>228</v>
+      </c>
+      <c r="C17" s="1">
+        <v>202</v>
+      </c>
+      <c r="D17" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>214</v>
+      </c>
+      <c r="C18" s="1">
+        <v>178</v>
+      </c>
+      <c r="D18" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>443</v>
+      </c>
+      <c r="C19" s="1">
+        <v>248</v>
+      </c>
+      <c r="D19" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>204</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2732</v>
+      </c>
+      <c r="D20" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>207</v>
+      </c>
+      <c r="C21" s="1">
+        <v>173</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>211</v>
+      </c>
+      <c r="C22" s="1">
+        <v>163</v>
+      </c>
+      <c r="D22" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>203</v>
+      </c>
+      <c r="C23" s="1">
+        <v>166</v>
+      </c>
+      <c r="D23" s="1">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>9768</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8353</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>95</v>
+      </c>
+      <c r="C4" s="1">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1">
+        <v>87</v>
+      </c>
+      <c r="D6" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>212</v>
+      </c>
+      <c r="C7" s="1">
+        <v>182</v>
+      </c>
+      <c r="D7" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>254</v>
+      </c>
+      <c r="C8" s="1">
+        <v>180</v>
+      </c>
+      <c r="D8" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>122</v>
+      </c>
+      <c r="C9" s="1">
+        <v>166</v>
+      </c>
+      <c r="D9" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>124</v>
+      </c>
+      <c r="C10" s="1">
+        <v>116</v>
+      </c>
+      <c r="D10" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>124</v>
+      </c>
+      <c r="C11" s="1">
+        <v>128</v>
+      </c>
+      <c r="D11" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>124</v>
+      </c>
+      <c r="C12" s="1">
+        <v>119</v>
+      </c>
+      <c r="D12" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>125</v>
+      </c>
+      <c r="C13" s="1">
+        <v>123</v>
+      </c>
+      <c r="D13" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>179</v>
+      </c>
+      <c r="C14" s="1">
+        <v>121</v>
+      </c>
+      <c r="D14" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>123</v>
+      </c>
+      <c r="C15" s="1">
+        <v>119</v>
+      </c>
+      <c r="D15" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>127</v>
+      </c>
+      <c r="C16" s="1">
+        <v>117</v>
+      </c>
+      <c r="D16" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>118</v>
+      </c>
+      <c r="C17" s="1">
+        <v>170</v>
+      </c>
+      <c r="D17" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>130</v>
+      </c>
+      <c r="C18" s="1">
+        <v>187</v>
+      </c>
+      <c r="D18" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>124</v>
+      </c>
+      <c r="C19" s="1">
+        <v>117</v>
+      </c>
+      <c r="D19" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>152</v>
+      </c>
+      <c r="C20" s="1">
+        <v>121</v>
+      </c>
+      <c r="D20" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>199</v>
+      </c>
+      <c r="C21" s="1">
+        <v>120</v>
+      </c>
+      <c r="D21" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1">
+        <v>118</v>
+      </c>
+      <c r="D22" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>122</v>
+      </c>
+      <c r="C23" s="1">
+        <v>116</v>
+      </c>
+      <c r="D23" s="1">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>8368</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6426</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>3079</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2798</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>421</v>
+      </c>
+      <c r="C5" s="1">
+        <v>351</v>
+      </c>
+      <c r="D5" s="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>414</v>
+      </c>
+      <c r="C7" s="1">
+        <v>356</v>
+      </c>
+      <c r="D7" s="1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>3007</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2673</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>14665</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12317</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>9607</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7907</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>213</v>
+      </c>
+      <c r="C7" s="1">
+        <v>112</v>
+      </c>
+      <c r="D7" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1">
+        <v>106</v>
+      </c>
+      <c r="D8" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>93</v>
+      </c>
+      <c r="C9" s="1">
+        <v>178</v>
+      </c>
+      <c r="D9" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>83</v>
+      </c>
+      <c r="C13" s="1">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>93</v>
+      </c>
+      <c r="C14" s="1">
+        <v>81</v>
+      </c>
+      <c r="D14" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>98</v>
+      </c>
+      <c r="C15" s="1">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>268</v>
+      </c>
+      <c r="C16" s="1">
+        <v>211</v>
+      </c>
+      <c r="D16" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>93</v>
+      </c>
+      <c r="C19" s="1">
+        <v>85</v>
+      </c>
+      <c r="D19" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>92</v>
+      </c>
+      <c r="C21" s="1">
+        <v>73</v>
+      </c>
+      <c r="D21" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>84</v>
+      </c>
+      <c r="C22" s="1">
+        <v>82</v>
+      </c>
+      <c r="D22" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>84</v>
+      </c>
+      <c r="C23" s="1">
+        <v>83</v>
+      </c>
+      <c r="D23" s="1">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2473,7 +7854,7 @@
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2481,8 +7862,9 @@
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2492,1465 +7874,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
-        <v>1922</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>2582</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
-        <v>8039</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>1390</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>267</v>
-      </c>
-      <c r="C5" s="1">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>226</v>
-      </c>
-      <c r="C6" s="1">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>244</v>
-      </c>
-      <c r="C7" s="1">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>248</v>
-      </c>
-      <c r="C8" s="1">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>376</v>
-      </c>
-      <c r="C9" s="1">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>458</v>
-      </c>
-      <c r="C10" s="1">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>246</v>
-      </c>
-      <c r="C11" s="1">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>481</v>
-      </c>
-      <c r="C12" s="1">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <v>298</v>
-      </c>
-      <c r="C13" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>249</v>
-      </c>
-      <c r="C14" s="1">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <v>243</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
-        <v>2287</v>
-      </c>
-      <c r="C16" s="1">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
-        <v>236</v>
-      </c>
-      <c r="C17" s="1">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <v>234</v>
-      </c>
-      <c r="C18" s="1">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <v>259</v>
-      </c>
-      <c r="C19" s="1">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <v>603</v>
-      </c>
-      <c r="C20" s="1">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
-        <v>254</v>
-      </c>
-      <c r="C21" s="1">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>235</v>
-      </c>
-      <c r="C22" s="1">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
-        <v>238</v>
-      </c>
-      <c r="C23" s="1">
-        <v>670</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
-        <v>22269</v>
-      </c>
-      <c r="C3" s="1">
-        <v>17204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>7481</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>204</v>
-      </c>
-      <c r="C5" s="1">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>343</v>
-      </c>
-      <c r="C6" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>200</v>
-      </c>
-      <c r="C7" s="1">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>214</v>
-      </c>
-      <c r="C8" s="1">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>203</v>
-      </c>
-      <c r="C9" s="1">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>284</v>
-      </c>
-      <c r="C10" s="1">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>2054</v>
-      </c>
-      <c r="C11" s="1">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>207</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <v>1067</v>
-      </c>
-      <c r="C13" s="1">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>457</v>
-      </c>
-      <c r="C14" s="1">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <v>211</v>
-      </c>
-      <c r="C15" s="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
-        <v>211</v>
-      </c>
-      <c r="C16" s="1">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
-        <v>213</v>
-      </c>
-      <c r="C17" s="1">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <v>220</v>
-      </c>
-      <c r="C18" s="1">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <v>548</v>
-      </c>
-      <c r="C19" s="1">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <v>223</v>
-      </c>
-      <c r="C20" s="1">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
-        <v>226</v>
-      </c>
-      <c r="C21" s="1">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>228</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3807</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
-        <v>655</v>
-      </c>
-      <c r="C23" s="1">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
-        <v>9935</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>9352</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>340</v>
-      </c>
-      <c r="C5" s="1">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>717</v>
-      </c>
-      <c r="C6" s="1">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>222</v>
-      </c>
-      <c r="C7" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>312</v>
-      </c>
-      <c r="C8" s="1">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>187</v>
-      </c>
-      <c r="C9" s="1">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>190</v>
-      </c>
-      <c r="C10" s="1">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>372</v>
-      </c>
-      <c r="C11" s="1">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>190</v>
-      </c>
-      <c r="C12" s="1">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <v>193</v>
-      </c>
-      <c r="C13" s="1">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>200</v>
-      </c>
-      <c r="C14" s="1">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <v>1992</v>
-      </c>
-      <c r="C15" s="1">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
-        <v>240</v>
-      </c>
-      <c r="C16" s="1">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
-        <v>228</v>
-      </c>
-      <c r="C17" s="1">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <v>214</v>
-      </c>
-      <c r="C18" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <v>443</v>
-      </c>
-      <c r="C19" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <v>204</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2732</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
-        <v>207</v>
-      </c>
-      <c r="C21" s="1">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>211</v>
-      </c>
-      <c r="C22" s="1">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
-        <v>203</v>
-      </c>
-      <c r="C23" s="1">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
-        <v>9768</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>95</v>
-      </c>
-      <c r="C4" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>88</v>
-      </c>
-      <c r="C5" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>97</v>
-      </c>
-      <c r="C6" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>212</v>
-      </c>
-      <c r="C7" s="1">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>254</v>
-      </c>
-      <c r="C8" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>122</v>
-      </c>
-      <c r="C9" s="1">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>124</v>
-      </c>
-      <c r="C10" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>124</v>
-      </c>
-      <c r="C11" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>124</v>
-      </c>
-      <c r="C12" s="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <v>125</v>
-      </c>
-      <c r="C13" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>179</v>
-      </c>
-      <c r="C14" s="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <v>123</v>
-      </c>
-      <c r="C15" s="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
-        <v>127</v>
-      </c>
-      <c r="C16" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
-        <v>118</v>
-      </c>
-      <c r="C17" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <v>130</v>
-      </c>
-      <c r="C18" s="1">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <v>124</v>
-      </c>
-      <c r="C19" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <v>152</v>
-      </c>
-      <c r="C20" s="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
-        <v>199</v>
-      </c>
-      <c r="C21" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>120</v>
-      </c>
-      <c r="C22" s="1">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
-        <v>122</v>
-      </c>
-      <c r="C23" s="1">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
-        <v>8368</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>3079</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>421</v>
-      </c>
-      <c r="C5" s="1">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>414</v>
-      </c>
-      <c r="C7" s="1">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>62</v>
-      </c>
-      <c r="C9" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>3007</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2673</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <v>78</v>
-      </c>
-      <c r="C20" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
-        <v>14665</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>9607</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>84</v>
-      </c>
-      <c r="C5" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>93</v>
-      </c>
-      <c r="C6" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>213</v>
-      </c>
-      <c r="C7" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>109</v>
-      </c>
-      <c r="C8" s="1">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>93</v>
-      </c>
-      <c r="C9" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>81</v>
-      </c>
-      <c r="C10" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>90</v>
-      </c>
-      <c r="C11" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>88</v>
-      </c>
-      <c r="C12" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <v>83</v>
-      </c>
-      <c r="C13" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>93</v>
-      </c>
-      <c r="C14" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <v>98</v>
-      </c>
-      <c r="C15" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
-        <v>268</v>
-      </c>
-      <c r="C16" s="1">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
-        <v>86</v>
-      </c>
-      <c r="C17" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <v>85</v>
-      </c>
-      <c r="C18" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <v>93</v>
-      </c>
-      <c r="C19" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <v>81</v>
-      </c>
-      <c r="C20" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
-        <v>92</v>
-      </c>
-      <c r="C21" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>84</v>
-      </c>
-      <c r="C22" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
-        <v>84</v>
-      </c>
-      <c r="C23" s="1">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>13874</v>
       </c>
@@ -3958,7 +7886,7 @@
         <v>10548</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>4096</v>
       </c>
@@ -3966,7 +7894,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>399</v>
       </c>
@@ -3974,7 +7902,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>237</v>
       </c>
@@ -3982,7 +7910,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>248</v>
       </c>
@@ -3990,7 +7918,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>1368</v>
       </c>
@@ -3998,7 +7926,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>265</v>
       </c>
@@ -4006,7 +7934,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>317</v>
       </c>
@@ -4014,7 +7942,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>566</v>
       </c>
@@ -4022,7 +7950,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>265</v>
       </c>
@@ -4030,7 +7958,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>260</v>
       </c>
@@ -4038,7 +7966,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>770</v>
       </c>
@@ -4046,7 +7974,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>256</v>
       </c>
@@ -4054,7 +7982,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>256</v>
       </c>
@@ -4120,7 +8048,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4129,10 +8057,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:C1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4140,9 +8068,10 @@
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4150,8 +8079,9 @@
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4161,8 +8091,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>6864</v>
       </c>
@@ -4170,7 +8103,7 @@
         <v>6414</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2020</v>
       </c>
@@ -4178,7 +8111,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>44</v>
       </c>
@@ -4186,7 +8119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>25</v>
       </c>
@@ -4194,7 +8127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>27</v>
       </c>
@@ -4202,7 +8135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>26</v>
       </c>
@@ -4210,7 +8143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>27</v>
       </c>
@@ -4218,7 +8151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>30</v>
       </c>
@@ -4226,7 +8159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>32</v>
       </c>
@@ -4234,7 +8167,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>29</v>
       </c>
@@ -4242,7 +8175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>31</v>
       </c>
@@ -4250,7 +8183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>29</v>
       </c>
@@ -4258,7 +8191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>33</v>
       </c>
@@ -4266,7 +8199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>29</v>
       </c>
@@ -4332,7 +8265,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/org.metaborg.lang.tiger.example/microbenchmarks/graalvm-timings.xlsx
+++ b/org.metaborg.lang.tiger.example/microbenchmarks/graalvm-timings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="32740" windowHeight="20540" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="32740" windowHeight="20540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="branching" sheetId="1" r:id="rId1"/>
@@ -12377,15 +12377,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16744,8 +16744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17734,10 +17734,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:K1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17755,7 +17755,7 @@
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -17776,7 +17776,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>8368</v>
       </c>
@@ -17842,8 +17842,9 @@
       <c r="K3" s="1">
         <v>10671</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>3079</v>
       </c>
@@ -17874,8 +17875,9 @@
       <c r="K4" s="1">
         <v>2152</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>421</v>
       </c>
@@ -17906,8 +17908,9 @@
       <c r="K5" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>32</v>
       </c>
@@ -17938,8 +17941,9 @@
       <c r="K6" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>414</v>
       </c>
@@ -17970,8 +17974,9 @@
       <c r="K7" s="1">
         <v>369</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>28</v>
       </c>
@@ -18002,8 +18007,9 @@
       <c r="K8" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>62</v>
       </c>
@@ -18034,8 +18040,9 @@
       <c r="K9" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>31</v>
       </c>
@@ -18066,8 +18073,9 @@
       <c r="K10" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>3007</v>
       </c>
@@ -18098,8 +18106,9 @@
       <c r="K11" s="1">
         <v>8219</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>32</v>
       </c>
@@ -18130,8 +18139,9 @@
       <c r="K12" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>28</v>
       </c>
@@ -18162,8 +18172,9 @@
       <c r="K13" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>36</v>
       </c>
@@ -18194,8 +18205,9 @@
       <c r="K14" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>27</v>
       </c>
@@ -18226,8 +18238,9 @@
       <c r="K15" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>31</v>
       </c>
@@ -18258,8 +18271,9 @@
       <c r="K16" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>24</v>
       </c>
@@ -18290,8 +18304,9 @@
       <c r="K17" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>34</v>
       </c>
@@ -18322,8 +18337,9 @@
       <c r="K18" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>42</v>
       </c>
@@ -18354,8 +18370,9 @@
       <c r="K19" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>78</v>
       </c>
@@ -18386,8 +18403,9 @@
       <c r="K20" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -18418,8 +18436,9 @@
       <c r="K21" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -18450,8 +18469,9 @@
       <c r="K22" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -18482,8 +18502,9 @@
       <c r="K23" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>102</v>
       </c>
@@ -18505,8 +18526,9 @@
       <c r="K24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>307</v>
       </c>
@@ -18528,8 +18550,9 @@
       <c r="K25" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>15</v>
       </c>
@@ -18551,8 +18574,9 @@
       <c r="K26" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>16</v>
       </c>
@@ -18574,8 +18598,9 @@
       <c r="K27" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>66</v>
       </c>
@@ -18597,8 +18622,9 @@
       <c r="K28" s="1">
         <v>329</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>18</v>
       </c>
@@ -18620,8 +18646,9 @@
       <c r="K29" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>17</v>
       </c>
@@ -18643,8 +18670,9 @@
       <c r="K30" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>27</v>
       </c>
@@ -18666,8 +18694,9 @@
       <c r="K31" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>26</v>
       </c>
@@ -18689,8 +18718,9 @@
       <c r="K32" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>18</v>
       </c>
@@ -18712,6 +18742,7 @@
       <c r="K33" s="1">
         <v>10</v>
       </c>
+      <c r="L33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -19720,7 +19751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G2" sqref="G1:K1048576"/>
     </sheetView>
   </sheetViews>

--- a/org.metaborg.lang.tiger.example/microbenchmarks/graalvm-timings.xlsx
+++ b/org.metaborg.lang.tiger.example/microbenchmarks/graalvm-timings.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="16">
   <si>
     <t>Exc native</t>
   </si>
@@ -81,12 +81,15 @@
   <si>
     <t>956edf -- native frames</t>
   </si>
+  <si>
+    <t>d4c50358 -- boolean matching + dispatch chains</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +102,29 @@
       <color theme="1"/>
       <name val="Monaco"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,18 +144,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1036,6 +1083,681 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>branching!$I$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>925d055 -- native loops &amp; native exceptions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3bab370 -- extra boundaries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>branching!$I$3:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>3731.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3061.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>962.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>298.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>branching!$J$1:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>925d055 -- native loops &amp; native exceptions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0e36266 -- leaf checks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>branching!$J$3:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>3084.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2612.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1351.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>branching!$K$1:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>925d055 -- native loops &amp; native exceptions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0b62d241 -- shallow rules</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>branching!$K$3:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1506.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1348.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>444.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>321.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>branching!$L$1:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8d4e3d -- native frames</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>956edf -- native frames</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>branching!$L$3:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2777.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2405.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1004.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1525.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>branching!$M$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8d4e3d -- native frames</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>d4c50358 -- boolean matching + dispatch chains</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>branching!$M$3:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>875.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1390.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>720.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>698.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>368.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>367.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1045,11 +1767,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1004809008"/>
-        <c:axId val="911125472"/>
+        <c:axId val="1070656416"/>
+        <c:axId val="1112568384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1004809008"/>
+        <c:axId val="1070656416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="911125472"/>
+        <c:crossAx val="1112568384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1099,7 +1821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="911125472"/>
+        <c:axId val="1112568384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -1120,7 +1842,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1151,7 +1872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1004809008"/>
+        <c:crossAx val="1070656416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2660,6 +3381,141 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>27.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'break-intensive'!$M$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8d4e3d -- native frames</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>d4c50358 -- boolean matching + dispatch chains</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'break-intensive'!$M$3:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>3692.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1314.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1832.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>712.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1022.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>389.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4289,6 +5145,141 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>30.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list!$M$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8d4e3d -- native frames</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>d4c50358 -- boolean matching + dispatch chains</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>list!$M$3:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>9259.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7900.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2114.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2674.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1506.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2727.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4497.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>312.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>295.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5925,6 +6916,141 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>permute!$M$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8d4e3d -- native frames</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>d4c50358 -- boolean matching + dispatch chains</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>permute!$M$3:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>4127.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2416.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1588.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1576.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1091.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>493.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>494.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -7548,6 +8674,141 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>14.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'queens-looped'!$M$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8d4e3d -- native frames</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>d4c50358 -- boolean matching + dispatch chains</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'queens-looped'!$M$3:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>4507.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1699.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>579.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>617.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9183,6 +10444,141 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>queens2!$M$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8d4e3d -- native frames</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>d4c50358 -- boolean matching + dispatch chains</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>queens2!$M$3:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>9588.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4055.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2205.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1825.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1744.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>861.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>872.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -10806,6 +12202,141 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sieve!$M$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8d4e3d -- native frames</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>d4c50358 -- boolean matching + dispatch chains</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sieve!$M$3:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>9576.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8933.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2716.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2333.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1561.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1224.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>628.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>392.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12441,6 +13972,141 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>towers!$M$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8d4e3d -- native frames</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>d4c50358 -- boolean matching + dispatch chains</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>towers!$M$3:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5830.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3460.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1927.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2286.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3071.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1189.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1212.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -14064,6 +15730,141 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'while-loop'!$M$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8d4e3d -- native frames</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>d4c50358 -- boolean matching + dispatch chains</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'while-loop'!$M$3:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>998.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>296.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19273,20 +21074,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19553,16 +21354,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19847,10 +21648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19867,9 +21668,11 @@
     <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.6640625" customWidth="1"/>
+    <col min="14" max="14" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -19892,8 +21695,11 @@
       <c r="L1" t="s">
         <v>13</v>
       </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -19930,8 +21736,11 @@
       <c r="L2" t="s">
         <v>14</v>
       </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1922</v>
       </c>
@@ -19965,8 +21774,11 @@
       <c r="L3" s="1">
         <v>2777</v>
       </c>
+      <c r="M3" s="1">
+        <v>875</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2582</v>
       </c>
@@ -20000,8 +21812,11 @@
       <c r="L4" s="1">
         <v>2405</v>
       </c>
+      <c r="M4" s="1">
+        <v>1390</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -20035,8 +21850,11 @@
       <c r="L5" s="1">
         <v>1004</v>
       </c>
+      <c r="M5" s="1">
+        <v>720</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -20070,8 +21888,11 @@
       <c r="L6" s="1">
         <v>1525</v>
       </c>
+      <c r="M6" s="1">
+        <v>698</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -20105,8 +21926,11 @@
       <c r="L7" s="1">
         <v>450</v>
       </c>
+      <c r="M7" s="1">
+        <v>368</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -20140,8 +21964,11 @@
       <c r="L8" s="1">
         <v>0</v>
       </c>
+      <c r="M8" s="1">
+        <v>367</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -20175,8 +22002,11 @@
       <c r="L9" s="1">
         <v>1</v>
       </c>
+      <c r="M9" s="1">
+        <v>390</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -20210,8 +22040,11 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>3</v>
       </c>
@@ -20245,8 +22078,11 @@
       <c r="L11" s="1">
         <v>1</v>
       </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -20280,8 +22116,11 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -20315,8 +22154,11 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>2</v>
       </c>
@@ -20350,8 +22192,11 @@
       <c r="L14" s="1">
         <v>1</v>
       </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -20385,8 +22230,11 @@
       <c r="L15" s="1">
         <v>1</v>
       </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -20420,8 +22268,11 @@
       <c r="L16" s="1">
         <v>0</v>
       </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -20455,8 +22306,11 @@
       <c r="L17" s="1">
         <v>1</v>
       </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>5</v>
       </c>
@@ -20490,8 +22344,11 @@
       <c r="L18" s="1">
         <v>1</v>
       </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -20525,8 +22382,11 @@
       <c r="L19" s="1">
         <v>0</v>
       </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>7</v>
       </c>
@@ -20560,8 +22420,11 @@
       <c r="L20" s="1">
         <v>1</v>
       </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -20595,8 +22458,11 @@
       <c r="L21" s="1">
         <v>0</v>
       </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -20630,8 +22496,11 @@
       <c r="L22" s="1">
         <v>1</v>
       </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -20665,8 +22534,11 @@
       <c r="L23" s="1">
         <v>0</v>
       </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>3</v>
       </c>
@@ -20691,8 +22563,11 @@
       <c r="L24" s="1">
         <v>1</v>
       </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>3</v>
       </c>
@@ -20717,8 +22592,11 @@
       <c r="L25" s="1">
         <v>0</v>
       </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>3</v>
       </c>
@@ -20743,8 +22621,11 @@
       <c r="L26" s="1">
         <v>0</v>
       </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>3</v>
       </c>
@@ -20769,8 +22650,11 @@
       <c r="L27" s="1">
         <v>0</v>
       </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>4</v>
       </c>
@@ -20795,8 +22679,11 @@
       <c r="L28" s="1">
         <v>0</v>
       </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>5</v>
       </c>
@@ -20821,8 +22708,11 @@
       <c r="L29" s="1">
         <v>0</v>
       </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>4</v>
       </c>
@@ -20847,8 +22737,11 @@
       <c r="L30" s="1">
         <v>0</v>
       </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>6</v>
       </c>
@@ -20873,8 +22766,11 @@
       <c r="L31" s="1">
         <v>1</v>
       </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>2</v>
       </c>
@@ -20899,8 +22795,11 @@
       <c r="L32" s="1">
         <v>0</v>
       </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>2</v>
       </c>
@@ -20924,6 +22823,9 @@
       </c>
       <c r="L33" s="1">
         <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -20939,10 +22841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:L1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20958,9 +22860,11 @@
     <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -20983,8 +22887,11 @@
       <c r="L1" t="s">
         <v>13</v>
       </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -21021,8 +22928,11 @@
       <c r="L2" t="s">
         <v>14</v>
       </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>8039</v>
       </c>
@@ -21056,8 +22966,12 @@
       <c r="L3" s="1">
         <v>3470</v>
       </c>
+      <c r="M3" s="1">
+        <v>3692</v>
+      </c>
+      <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>1390</v>
       </c>
@@ -21091,8 +23005,12 @@
       <c r="L4" s="1">
         <v>3506</v>
       </c>
+      <c r="M4" s="1">
+        <v>1314</v>
+      </c>
+      <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>267</v>
       </c>
@@ -21126,8 +23044,12 @@
       <c r="L5" s="1">
         <v>2536</v>
       </c>
+      <c r="M5" s="1">
+        <v>1832</v>
+      </c>
+      <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>226</v>
       </c>
@@ -21161,8 +23083,12 @@
       <c r="L6" s="1">
         <v>1061</v>
       </c>
+      <c r="M6" s="1">
+        <v>712</v>
+      </c>
+      <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>244</v>
       </c>
@@ -21196,8 +23122,12 @@
       <c r="L7" s="1">
         <v>28</v>
       </c>
+      <c r="M7" s="1">
+        <v>1022</v>
+      </c>
+      <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>248</v>
       </c>
@@ -21231,8 +23161,12 @@
       <c r="L8" s="1">
         <v>29</v>
       </c>
+      <c r="M8" s="1">
+        <v>22</v>
+      </c>
+      <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>376</v>
       </c>
@@ -21266,8 +23200,12 @@
       <c r="L9" s="1">
         <v>51</v>
       </c>
+      <c r="M9" s="1">
+        <v>389</v>
+      </c>
+      <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>458</v>
       </c>
@@ -21301,8 +23239,12 @@
       <c r="L10" s="1">
         <v>28</v>
       </c>
+      <c r="M10" s="1">
+        <v>22</v>
+      </c>
+      <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>246</v>
       </c>
@@ -21336,8 +23278,12 @@
       <c r="L11" s="1">
         <v>26</v>
       </c>
+      <c r="M11" s="1">
+        <v>21</v>
+      </c>
+      <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>481</v>
       </c>
@@ -21371,8 +23317,12 @@
       <c r="L12" s="1">
         <v>25</v>
       </c>
+      <c r="M12" s="1">
+        <v>24</v>
+      </c>
+      <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>298</v>
       </c>
@@ -21406,8 +23356,12 @@
       <c r="L13" s="1">
         <v>26</v>
       </c>
+      <c r="M13" s="1">
+        <v>22</v>
+      </c>
+      <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>249</v>
       </c>
@@ -21441,8 +23395,12 @@
       <c r="L14" s="1">
         <v>27</v>
       </c>
+      <c r="M14" s="1">
+        <v>21</v>
+      </c>
+      <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>243</v>
       </c>
@@ -21476,8 +23434,12 @@
       <c r="L15" s="1">
         <v>26</v>
       </c>
+      <c r="M15" s="1">
+        <v>24</v>
+      </c>
+      <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>2287</v>
       </c>
@@ -21511,8 +23473,12 @@
       <c r="L16" s="1">
         <v>28</v>
       </c>
+      <c r="M16" s="1">
+        <v>22</v>
+      </c>
+      <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>236</v>
       </c>
@@ -21546,8 +23512,12 @@
       <c r="L17" s="1">
         <v>25</v>
       </c>
+      <c r="M17" s="1">
+        <v>21</v>
+      </c>
+      <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>234</v>
       </c>
@@ -21581,8 +23551,12 @@
       <c r="L18" s="1">
         <v>29</v>
       </c>
+      <c r="M18" s="1">
+        <v>25</v>
+      </c>
+      <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>259</v>
       </c>
@@ -21616,8 +23590,12 @@
       <c r="L19" s="1">
         <v>25</v>
       </c>
+      <c r="M19" s="1">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>603</v>
       </c>
@@ -21651,8 +23629,12 @@
       <c r="L20" s="1">
         <v>25</v>
       </c>
+      <c r="M20" s="1">
+        <v>24</v>
+      </c>
+      <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>254</v>
       </c>
@@ -21686,8 +23668,12 @@
       <c r="L21" s="1">
         <v>28</v>
       </c>
+      <c r="M21" s="1">
+        <v>22</v>
+      </c>
+      <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>235</v>
       </c>
@@ -21721,8 +23707,12 @@
       <c r="L22" s="1">
         <v>28</v>
       </c>
+      <c r="M22" s="1">
+        <v>29</v>
+      </c>
+      <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>238</v>
       </c>
@@ -21756,8 +23746,12 @@
       <c r="L23" s="1">
         <v>28</v>
       </c>
+      <c r="M23" s="1">
+        <v>20</v>
+      </c>
+      <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>412</v>
       </c>
@@ -21782,8 +23776,12 @@
       <c r="L24" s="1">
         <v>30</v>
       </c>
+      <c r="M24" s="1">
+        <v>22</v>
+      </c>
+      <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>2917</v>
       </c>
@@ -21808,8 +23806,12 @@
       <c r="L25" s="1">
         <v>43</v>
       </c>
+      <c r="M25" s="1">
+        <v>23</v>
+      </c>
+      <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>420</v>
       </c>
@@ -21834,8 +23836,12 @@
       <c r="L26" s="1">
         <v>57</v>
       </c>
+      <c r="M26" s="1">
+        <v>20</v>
+      </c>
+      <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>511</v>
       </c>
@@ -21860,8 +23866,12 @@
       <c r="L27" s="1">
         <v>56</v>
       </c>
+      <c r="M27" s="1">
+        <v>22</v>
+      </c>
+      <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>638</v>
       </c>
@@ -21886,8 +23896,12 @@
       <c r="L28" s="1">
         <v>28</v>
       </c>
+      <c r="M28" s="1">
+        <v>23</v>
+      </c>
+      <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>424</v>
       </c>
@@ -21912,8 +23926,12 @@
       <c r="L29" s="1">
         <v>26</v>
       </c>
+      <c r="M29" s="1">
+        <v>21</v>
+      </c>
+      <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>662</v>
       </c>
@@ -21938,8 +23956,12 @@
       <c r="L30" s="1">
         <v>26</v>
       </c>
+      <c r="M30" s="1">
+        <v>20</v>
+      </c>
+      <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>434</v>
       </c>
@@ -21964,8 +23986,12 @@
       <c r="L31" s="1">
         <v>27</v>
       </c>
+      <c r="M31" s="1">
+        <v>20</v>
+      </c>
+      <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>650</v>
       </c>
@@ -21990,8 +24016,12 @@
       <c r="L32" s="1">
         <v>27</v>
       </c>
+      <c r="M32" s="1">
+        <v>22</v>
+      </c>
+      <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>413</v>
       </c>
@@ -22016,6 +24046,10 @@
       <c r="L33" s="1">
         <v>27</v>
       </c>
+      <c r="M33" s="1">
+        <v>23</v>
+      </c>
+      <c r="N33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -22030,10 +24064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:L1048576"/>
+      <selection activeCell="M3" sqref="M3:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22049,71 +24083,78 @@
     <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>22269</v>
       </c>
@@ -22147,8 +24188,13 @@
       <c r="L3" s="1">
         <v>17227</v>
       </c>
+      <c r="M3" s="1">
+        <v>9259</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>7481</v>
       </c>
@@ -22182,8 +24228,13 @@
       <c r="L4" s="1">
         <v>6372</v>
       </c>
+      <c r="M4" s="1">
+        <v>7900</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>204</v>
       </c>
@@ -22217,8 +24268,13 @@
       <c r="L5" s="1">
         <v>1590</v>
       </c>
+      <c r="M5" s="1">
+        <v>2114</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>343</v>
       </c>
@@ -22252,8 +24308,13 @@
       <c r="L6" s="1">
         <v>490</v>
       </c>
+      <c r="M6" s="1">
+        <v>2674</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>200</v>
       </c>
@@ -22287,8 +24348,13 @@
       <c r="L7" s="1">
         <v>30</v>
       </c>
+      <c r="M7" s="1">
+        <v>1506</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>214</v>
       </c>
@@ -22322,8 +24388,13 @@
       <c r="L8" s="1">
         <v>55</v>
       </c>
+      <c r="M8" s="1">
+        <v>2727</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>203</v>
       </c>
@@ -22357,8 +24428,13 @@
       <c r="L9" s="1">
         <v>2013</v>
       </c>
+      <c r="M9" s="1">
+        <v>4497</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>284</v>
       </c>
@@ -22392,8 +24468,13 @@
       <c r="L10" s="1">
         <v>30</v>
       </c>
+      <c r="M10" s="1">
+        <v>312</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>2054</v>
       </c>
@@ -22427,8 +24508,13 @@
       <c r="L11" s="1">
         <v>28</v>
       </c>
+      <c r="M11" s="1">
+        <v>238</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>207</v>
       </c>
@@ -22462,8 +24548,13 @@
       <c r="L12" s="1">
         <v>28</v>
       </c>
+      <c r="M12" s="1">
+        <v>20</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>1067</v>
       </c>
@@ -22497,8 +24588,13 @@
       <c r="L13" s="1">
         <v>31</v>
       </c>
+      <c r="M13" s="1">
+        <v>19</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>457</v>
       </c>
@@ -22532,8 +24628,13 @@
       <c r="L14" s="1">
         <v>31</v>
       </c>
+      <c r="M14" s="1">
+        <v>19</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>211</v>
       </c>
@@ -22567,8 +24668,13 @@
       <c r="L15" s="1">
         <v>30</v>
       </c>
+      <c r="M15" s="1">
+        <v>21</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>211</v>
       </c>
@@ -22602,8 +24708,13 @@
       <c r="L16" s="1">
         <v>33</v>
       </c>
+      <c r="M16" s="1">
+        <v>22</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>213</v>
       </c>
@@ -22637,8 +24748,13 @@
       <c r="L17" s="1">
         <v>31</v>
       </c>
+      <c r="M17" s="1">
+        <v>21</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>220</v>
       </c>
@@ -22672,8 +24788,13 @@
       <c r="L18" s="1">
         <v>32</v>
       </c>
+      <c r="M18" s="1">
+        <v>28</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>548</v>
       </c>
@@ -22707,8 +24828,13 @@
       <c r="L19" s="1">
         <v>29</v>
       </c>
+      <c r="M19" s="1">
+        <v>37</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>223</v>
       </c>
@@ -22742,8 +24868,13 @@
       <c r="L20" s="1">
         <v>32</v>
       </c>
+      <c r="M20" s="1">
+        <v>72</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>226</v>
       </c>
@@ -22777,8 +24908,13 @@
       <c r="L21" s="1">
         <v>212</v>
       </c>
+      <c r="M21" s="1">
+        <v>19</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>228</v>
       </c>
@@ -22812,8 +24948,13 @@
       <c r="L22" s="1">
         <v>48</v>
       </c>
+      <c r="M22" s="1">
+        <v>19</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>655</v>
       </c>
@@ -22847,8 +24988,13 @@
       <c r="L23" s="1">
         <v>33</v>
       </c>
+      <c r="M23" s="1">
+        <v>20</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>5076</v>
       </c>
@@ -22873,8 +25019,13 @@
       <c r="L24" s="1">
         <v>35</v>
       </c>
+      <c r="M24" s="1">
+        <v>22</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>205</v>
       </c>
@@ -22899,8 +25050,13 @@
       <c r="L25" s="1">
         <v>149</v>
       </c>
+      <c r="M25" s="1">
+        <v>295</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>204</v>
       </c>
@@ -22925,8 +25081,13 @@
       <c r="L26" s="1">
         <v>29</v>
       </c>
+      <c r="M26" s="1">
+        <v>20</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>769</v>
       </c>
@@ -22951,8 +25112,13 @@
       <c r="L27" s="1">
         <v>29</v>
       </c>
+      <c r="M27" s="1">
+        <v>19</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>211</v>
       </c>
@@ -22977,8 +25143,13 @@
       <c r="L28" s="1">
         <v>31</v>
       </c>
+      <c r="M28" s="1">
+        <v>20</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>591</v>
       </c>
@@ -23003,8 +25174,13 @@
       <c r="L29" s="1">
         <v>29</v>
       </c>
+      <c r="M29" s="1">
+        <v>20</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>207</v>
       </c>
@@ -23029,8 +25205,13 @@
       <c r="L30" s="1">
         <v>30</v>
       </c>
+      <c r="M30" s="1">
+        <v>23</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>209</v>
       </c>
@@ -23055,8 +25236,13 @@
       <c r="L31" s="1">
         <v>29</v>
       </c>
+      <c r="M31" s="1">
+        <v>20</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>5646</v>
       </c>
@@ -23081,8 +25267,13 @@
       <c r="L32" s="1">
         <v>31</v>
       </c>
+      <c r="M32" s="1">
+        <v>27</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>212</v>
       </c>
@@ -23107,6 +25298,11 @@
       <c r="L33" s="1">
         <v>30</v>
       </c>
+      <c r="M33" s="1">
+        <v>23</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -23121,10 +25317,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23140,71 +25336,80 @@
     <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>9935</v>
       </c>
@@ -23238,8 +25443,12 @@
       <c r="L3" s="1">
         <v>8400</v>
       </c>
+      <c r="M3" s="1">
+        <v>4127</v>
+      </c>
+      <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>9352</v>
       </c>
@@ -23273,8 +25482,12 @@
       <c r="L4" s="1">
         <v>7509</v>
       </c>
+      <c r="M4" s="1">
+        <v>2416</v>
+      </c>
+      <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>340</v>
       </c>
@@ -23308,8 +25521,12 @@
       <c r="L5" s="1">
         <v>2291</v>
       </c>
+      <c r="M5" s="1">
+        <v>1588</v>
+      </c>
+      <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>717</v>
       </c>
@@ -23343,8 +25560,12 @@
       <c r="L6" s="1">
         <v>29</v>
       </c>
+      <c r="M6" s="1">
+        <v>1576</v>
+      </c>
+      <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>222</v>
       </c>
@@ -23378,8 +25599,12 @@
       <c r="L7" s="1">
         <v>30</v>
       </c>
+      <c r="M7" s="1">
+        <v>1091</v>
+      </c>
+      <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>312</v>
       </c>
@@ -23413,8 +25638,12 @@
       <c r="L8" s="1">
         <v>52</v>
       </c>
+      <c r="M8" s="1">
+        <v>493</v>
+      </c>
+      <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>187</v>
       </c>
@@ -23448,8 +25677,12 @@
       <c r="L9" s="1">
         <v>58</v>
       </c>
+      <c r="M9" s="1">
+        <v>20</v>
+      </c>
+      <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>190</v>
       </c>
@@ -23483,8 +25716,12 @@
       <c r="L10" s="1">
         <v>30</v>
       </c>
+      <c r="M10" s="1">
+        <v>494</v>
+      </c>
+      <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>372</v>
       </c>
@@ -23518,8 +25755,12 @@
       <c r="L11" s="1">
         <v>30</v>
       </c>
+      <c r="M11" s="1">
+        <v>17</v>
+      </c>
+      <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>190</v>
       </c>
@@ -23553,8 +25794,12 @@
       <c r="L12" s="1">
         <v>31</v>
       </c>
+      <c r="M12" s="1">
+        <v>34</v>
+      </c>
+      <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>193</v>
       </c>
@@ -23588,8 +25833,12 @@
       <c r="L13" s="1">
         <v>28</v>
       </c>
+      <c r="M13" s="1">
+        <v>46</v>
+      </c>
+      <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>200</v>
       </c>
@@ -23623,8 +25872,12 @@
       <c r="L14" s="1">
         <v>27</v>
       </c>
+      <c r="M14" s="1">
+        <v>45</v>
+      </c>
+      <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>1992</v>
       </c>
@@ -23658,8 +25911,12 @@
       <c r="L15" s="1">
         <v>30</v>
       </c>
+      <c r="M15" s="1">
+        <v>21</v>
+      </c>
+      <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>240</v>
       </c>
@@ -23693,8 +25950,12 @@
       <c r="L16" s="1">
         <v>30</v>
       </c>
+      <c r="M16" s="1">
+        <v>20</v>
+      </c>
+      <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>228</v>
       </c>
@@ -23728,8 +25989,12 @@
       <c r="L17" s="1">
         <v>29</v>
       </c>
+      <c r="M17" s="1">
+        <v>19</v>
+      </c>
+      <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>214</v>
       </c>
@@ -23763,8 +26028,12 @@
       <c r="L18" s="1">
         <v>35</v>
       </c>
+      <c r="M18" s="1">
+        <v>20</v>
+      </c>
+      <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>443</v>
       </c>
@@ -23798,8 +26067,12 @@
       <c r="L19" s="1">
         <v>28</v>
       </c>
+      <c r="M19" s="1">
+        <v>18</v>
+      </c>
+      <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>204</v>
       </c>
@@ -23833,8 +26106,12 @@
       <c r="L20" s="1">
         <v>30</v>
       </c>
+      <c r="M20" s="1">
+        <v>22</v>
+      </c>
+      <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>207</v>
       </c>
@@ -23868,8 +26145,12 @@
       <c r="L21" s="1">
         <v>30</v>
       </c>
+      <c r="M21" s="1">
+        <v>17</v>
+      </c>
+      <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>211</v>
       </c>
@@ -23903,8 +26184,12 @@
       <c r="L22" s="1">
         <v>27</v>
       </c>
+      <c r="M22" s="1">
+        <v>21</v>
+      </c>
+      <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>203</v>
       </c>
@@ -23938,8 +26223,12 @@
       <c r="L23" s="1">
         <v>28</v>
       </c>
+      <c r="M23" s="1">
+        <v>21</v>
+      </c>
+      <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>430</v>
       </c>
@@ -23964,8 +26253,12 @@
       <c r="L24" s="1">
         <v>29</v>
       </c>
+      <c r="M24" s="1">
+        <v>18</v>
+      </c>
+      <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>179</v>
       </c>
@@ -23990,8 +26283,12 @@
       <c r="L25" s="1">
         <v>30</v>
       </c>
+      <c r="M25" s="1">
+        <v>20</v>
+      </c>
+      <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>179</v>
       </c>
@@ -24016,8 +26313,12 @@
       <c r="L26" s="1">
         <v>28</v>
       </c>
+      <c r="M26" s="1">
+        <v>21</v>
+      </c>
+      <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>179</v>
       </c>
@@ -24042,8 +26343,12 @@
       <c r="L27" s="1">
         <v>40</v>
       </c>
+      <c r="M27" s="1">
+        <v>18</v>
+      </c>
+      <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>180</v>
       </c>
@@ -24068,8 +26373,12 @@
       <c r="L28" s="1">
         <v>27</v>
       </c>
+      <c r="M28" s="1">
+        <v>19</v>
+      </c>
+      <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>524</v>
       </c>
@@ -24094,8 +26403,12 @@
       <c r="L29" s="1">
         <v>31</v>
       </c>
+      <c r="M29" s="1">
+        <v>18</v>
+      </c>
+      <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>181</v>
       </c>
@@ -24120,8 +26433,12 @@
       <c r="L30" s="1">
         <v>28</v>
       </c>
+      <c r="M30" s="1">
+        <v>23</v>
+      </c>
+      <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>196</v>
       </c>
@@ -24146,8 +26463,12 @@
       <c r="L31" s="1">
         <v>28</v>
       </c>
+      <c r="M31" s="1">
+        <v>19</v>
+      </c>
+      <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>203</v>
       </c>
@@ -24172,8 +26493,12 @@
       <c r="L32" s="1">
         <v>29</v>
       </c>
+      <c r="M32" s="1">
+        <v>21</v>
+      </c>
+      <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>614</v>
       </c>
@@ -24198,6 +26523,10 @@
       <c r="L33" s="1">
         <v>31</v>
       </c>
+      <c r="M33" s="1">
+        <v>18</v>
+      </c>
+      <c r="N33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -24212,10 +26541,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24231,71 +26560,79 @@
     <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>9768</v>
       </c>
@@ -24329,8 +26666,11 @@
       <c r="L3" s="1">
         <v>5253</v>
       </c>
+      <c r="M3" s="1">
+        <v>4507</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>95</v>
       </c>
@@ -24364,8 +26704,11 @@
       <c r="L4" s="1">
         <v>3051</v>
       </c>
+      <c r="M4" s="1">
+        <v>1699</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>88</v>
       </c>
@@ -24399,8 +26742,11 @@
       <c r="L5" s="1">
         <v>15</v>
       </c>
+      <c r="M5" s="1">
+        <v>579</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>97</v>
       </c>
@@ -24434,8 +26780,11 @@
       <c r="L6" s="1">
         <v>19</v>
       </c>
+      <c r="M6" s="1">
+        <v>617</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>212</v>
       </c>
@@ -24469,8 +26818,11 @@
       <c r="L7" s="1">
         <v>22</v>
       </c>
+      <c r="M7" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>254</v>
       </c>
@@ -24504,8 +26856,11 @@
       <c r="L8" s="1">
         <v>13</v>
       </c>
+      <c r="M8" s="1">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>122</v>
       </c>
@@ -24539,8 +26894,11 @@
       <c r="L9" s="1">
         <v>13</v>
       </c>
+      <c r="M9" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>124</v>
       </c>
@@ -24574,8 +26932,11 @@
       <c r="L10" s="1">
         <v>22</v>
       </c>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>124</v>
       </c>
@@ -24609,8 +26970,11 @@
       <c r="L11" s="1">
         <v>14</v>
       </c>
+      <c r="M11" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>124</v>
       </c>
@@ -24644,8 +27008,11 @@
       <c r="L12" s="1">
         <v>19</v>
       </c>
+      <c r="M12" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>125</v>
       </c>
@@ -24679,8 +27046,11 @@
       <c r="L13" s="1">
         <v>13</v>
       </c>
+      <c r="M13" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>179</v>
       </c>
@@ -24714,8 +27084,11 @@
       <c r="L14" s="1">
         <v>13</v>
       </c>
+      <c r="M14" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>123</v>
       </c>
@@ -24749,8 +27122,11 @@
       <c r="L15" s="1">
         <v>17</v>
       </c>
+      <c r="M15" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>127</v>
       </c>
@@ -24784,8 +27160,11 @@
       <c r="L16" s="1">
         <v>14</v>
       </c>
+      <c r="M16" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>118</v>
       </c>
@@ -24819,8 +27198,11 @@
       <c r="L17" s="1">
         <v>12</v>
       </c>
+      <c r="M17" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>130</v>
       </c>
@@ -24854,8 +27236,11 @@
       <c r="L18" s="1">
         <v>13</v>
       </c>
+      <c r="M18" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>124</v>
       </c>
@@ -24889,8 +27274,11 @@
       <c r="L19" s="1">
         <v>15</v>
       </c>
+      <c r="M19" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>152</v>
       </c>
@@ -24924,8 +27312,11 @@
       <c r="L20" s="1">
         <v>16</v>
       </c>
+      <c r="M20" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>199</v>
       </c>
@@ -24959,8 +27350,11 @@
       <c r="L21" s="1">
         <v>13</v>
       </c>
+      <c r="M21" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>120</v>
       </c>
@@ -24994,8 +27388,11 @@
       <c r="L22" s="1">
         <v>13</v>
       </c>
+      <c r="M22" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>122</v>
       </c>
@@ -25029,8 +27426,11 @@
       <c r="L23" s="1">
         <v>14</v>
       </c>
+      <c r="M23" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>124</v>
       </c>
@@ -25055,8 +27455,11 @@
       <c r="L24" s="1">
         <v>16</v>
       </c>
+      <c r="M24" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>123</v>
       </c>
@@ -25081,8 +27484,11 @@
       <c r="L25" s="1">
         <v>12</v>
       </c>
+      <c r="M25" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>129</v>
       </c>
@@ -25107,8 +27513,11 @@
       <c r="L26" s="1">
         <v>14</v>
       </c>
+      <c r="M26" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>128</v>
       </c>
@@ -25133,8 +27542,11 @@
       <c r="L27" s="1">
         <v>13</v>
       </c>
+      <c r="M27" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>133</v>
       </c>
@@ -25159,8 +27571,11 @@
       <c r="L28" s="1">
         <v>14</v>
       </c>
+      <c r="M28" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>227</v>
       </c>
@@ -25185,8 +27600,11 @@
       <c r="L29" s="1">
         <v>16</v>
       </c>
+      <c r="M29" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>122</v>
       </c>
@@ -25211,8 +27629,11 @@
       <c r="L30" s="1">
         <v>12</v>
       </c>
+      <c r="M30" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>129</v>
       </c>
@@ -25237,8 +27658,11 @@
       <c r="L31" s="1">
         <v>15</v>
       </c>
+      <c r="M31" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>122</v>
       </c>
@@ -25263,8 +27687,11 @@
       <c r="L32" s="1">
         <v>15</v>
       </c>
+      <c r="M32" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>126</v>
       </c>
@@ -25288,6 +27715,9 @@
       </c>
       <c r="L33" s="1">
         <v>14</v>
+      </c>
+      <c r="M33" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -25303,10 +27733,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25322,71 +27752,78 @@
     <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>8368</v>
       </c>
@@ -25420,8 +27857,11 @@
       <c r="L3" s="1">
         <v>8695</v>
       </c>
+      <c r="M3" s="1">
+        <v>9588</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>3079</v>
       </c>
@@ -25455,8 +27895,11 @@
       <c r="L4" s="1">
         <v>5708</v>
       </c>
+      <c r="M4" s="1">
+        <v>4055</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>421</v>
       </c>
@@ -25490,8 +27933,11 @@
       <c r="L5" s="1">
         <v>6</v>
       </c>
+      <c r="M5" s="1">
+        <v>2205</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>32</v>
       </c>
@@ -25525,8 +27971,11 @@
       <c r="L6" s="1">
         <v>6</v>
       </c>
+      <c r="M6" s="1">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>414</v>
       </c>
@@ -25560,8 +28009,11 @@
       <c r="L7" s="1">
         <v>5</v>
       </c>
+      <c r="M7" s="1">
+        <v>1825</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>28</v>
       </c>
@@ -25595,8 +28047,11 @@
       <c r="L8" s="1">
         <v>3</v>
       </c>
+      <c r="M8" s="1">
+        <v>2012</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>62</v>
       </c>
@@ -25630,8 +28085,11 @@
       <c r="L9" s="1">
         <v>2</v>
       </c>
+      <c r="M9" s="1">
+        <v>1744</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>31</v>
       </c>
@@ -25665,8 +28123,11 @@
       <c r="L10" s="1">
         <v>3</v>
       </c>
+      <c r="M10" s="1">
+        <v>861</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>3007</v>
       </c>
@@ -25700,8 +28161,11 @@
       <c r="L11" s="1">
         <v>2</v>
       </c>
+      <c r="M11" s="1">
+        <v>872</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>32</v>
       </c>
@@ -25735,8 +28199,11 @@
       <c r="L12" s="1">
         <v>2</v>
       </c>
+      <c r="M12" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>28</v>
       </c>
@@ -25770,8 +28237,11 @@
       <c r="L13" s="1">
         <v>3</v>
       </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>36</v>
       </c>
@@ -25805,8 +28275,11 @@
       <c r="L14" s="1">
         <v>3</v>
       </c>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>27</v>
       </c>
@@ -25840,8 +28313,11 @@
       <c r="L15" s="1">
         <v>5</v>
       </c>
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>31</v>
       </c>
@@ -25875,8 +28351,11 @@
       <c r="L16" s="1">
         <v>6</v>
       </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>24</v>
       </c>
@@ -25910,8 +28389,11 @@
       <c r="L17" s="1">
         <v>5</v>
       </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>34</v>
       </c>
@@ -25945,8 +28427,11 @@
       <c r="L18" s="1">
         <v>3</v>
       </c>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>42</v>
       </c>
@@ -25980,8 +28465,11 @@
       <c r="L19" s="1">
         <v>3</v>
       </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>78</v>
       </c>
@@ -26015,8 +28503,11 @@
       <c r="L20" s="1">
         <v>9</v>
       </c>
+      <c r="M20" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -26050,8 +28541,11 @@
       <c r="L21" s="1">
         <v>7</v>
       </c>
+      <c r="M21" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -26085,8 +28579,11 @@
       <c r="L22" s="1">
         <v>198</v>
       </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -26120,8 +28617,11 @@
       <c r="L23" s="1">
         <v>3</v>
       </c>
+      <c r="M23" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>102</v>
       </c>
@@ -26146,8 +28646,11 @@
       <c r="L24" s="1">
         <v>3</v>
       </c>
+      <c r="M24" s="1">
+        <v>128</v>
+      </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>307</v>
       </c>
@@ -26172,8 +28675,11 @@
       <c r="L25" s="1">
         <v>3</v>
       </c>
+      <c r="M25" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>15</v>
       </c>
@@ -26198,8 +28704,11 @@
       <c r="L26" s="1">
         <v>3</v>
       </c>
+      <c r="M26" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>16</v>
       </c>
@@ -26224,8 +28733,11 @@
       <c r="L27" s="1">
         <v>51</v>
       </c>
+      <c r="M27" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>66</v>
       </c>
@@ -26250,8 +28762,11 @@
       <c r="L28" s="1">
         <v>3</v>
       </c>
+      <c r="M28" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>18</v>
       </c>
@@ -26276,8 +28791,11 @@
       <c r="L29" s="1">
         <v>4</v>
       </c>
+      <c r="M29" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>17</v>
       </c>
@@ -26302,8 +28820,11 @@
       <c r="L30" s="1">
         <v>2</v>
       </c>
+      <c r="M30" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>27</v>
       </c>
@@ -26328,8 +28849,11 @@
       <c r="L31" s="1">
         <v>12</v>
       </c>
+      <c r="M31" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>26</v>
       </c>
@@ -26354,8 +28878,11 @@
       <c r="L32" s="1">
         <v>2</v>
       </c>
+      <c r="M32" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>18</v>
       </c>
@@ -26379,6 +28906,9 @@
       </c>
       <c r="L33" s="1">
         <v>4</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -26394,10 +28924,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26413,71 +28943,79 @@
     <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>14665</v>
       </c>
@@ -26511,8 +29049,11 @@
       <c r="L3" s="1">
         <v>10711</v>
       </c>
+      <c r="M3" s="1">
+        <v>9576</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>9607</v>
       </c>
@@ -26546,8 +29087,11 @@
       <c r="L4" s="1">
         <v>4424</v>
       </c>
+      <c r="M4" s="1">
+        <v>8933</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>84</v>
       </c>
@@ -26581,8 +29125,11 @@
       <c r="L5" s="1">
         <v>13</v>
       </c>
+      <c r="M5" s="1">
+        <v>2716</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>93</v>
       </c>
@@ -26616,8 +29163,11 @@
       <c r="L6" s="1">
         <v>13</v>
       </c>
+      <c r="M6" s="1">
+        <v>2333</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>213</v>
       </c>
@@ -26651,8 +29201,11 @@
       <c r="L7" s="1">
         <v>14</v>
       </c>
+      <c r="M7" s="1">
+        <v>1561</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>109</v>
       </c>
@@ -26686,8 +29239,11 @@
       <c r="L8" s="1">
         <v>20</v>
       </c>
+      <c r="M8" s="1">
+        <v>1224</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>93</v>
       </c>
@@ -26721,8 +29277,11 @@
       <c r="L9" s="1">
         <v>19</v>
       </c>
+      <c r="M9" s="1">
+        <v>628</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>81</v>
       </c>
@@ -26756,8 +29315,11 @@
       <c r="L10" s="1">
         <v>24</v>
       </c>
+      <c r="M10" s="1">
+        <v>392</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>90</v>
       </c>
@@ -26791,8 +29353,11 @@
       <c r="L11" s="1">
         <v>20</v>
       </c>
+      <c r="M11" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>88</v>
       </c>
@@ -26826,8 +29391,11 @@
       <c r="L12" s="1">
         <v>20</v>
       </c>
+      <c r="M12" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>83</v>
       </c>
@@ -26861,8 +29429,11 @@
       <c r="L13" s="1">
         <v>20</v>
       </c>
+      <c r="M13" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>93</v>
       </c>
@@ -26896,8 +29467,11 @@
       <c r="L14" s="1">
         <v>18</v>
       </c>
+      <c r="M14" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>98</v>
       </c>
@@ -26931,8 +29505,11 @@
       <c r="L15" s="1">
         <v>19</v>
       </c>
+      <c r="M15" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>268</v>
       </c>
@@ -26966,8 +29543,11 @@
       <c r="L16" s="1">
         <v>20</v>
       </c>
+      <c r="M16" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>86</v>
       </c>
@@ -27001,8 +29581,11 @@
       <c r="L17" s="1">
         <v>15</v>
       </c>
+      <c r="M17" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>85</v>
       </c>
@@ -27036,8 +29619,11 @@
       <c r="L18" s="1">
         <v>24</v>
       </c>
+      <c r="M18" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>93</v>
       </c>
@@ -27071,8 +29657,11 @@
       <c r="L19" s="1">
         <v>68</v>
       </c>
+      <c r="M19" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>81</v>
       </c>
@@ -27106,8 +29695,11 @@
       <c r="L20" s="1">
         <v>12</v>
       </c>
+      <c r="M20" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>92</v>
       </c>
@@ -27141,8 +29733,11 @@
       <c r="L21" s="1">
         <v>10</v>
       </c>
+      <c r="M21" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>84</v>
       </c>
@@ -27176,8 +29771,11 @@
       <c r="L22" s="1">
         <v>10</v>
       </c>
+      <c r="M22" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>84</v>
       </c>
@@ -27211,8 +29809,11 @@
       <c r="L23" s="1">
         <v>10</v>
       </c>
+      <c r="M23" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>88</v>
       </c>
@@ -27237,8 +29838,11 @@
       <c r="L24" s="1">
         <v>10</v>
       </c>
+      <c r="M24" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>102</v>
       </c>
@@ -27263,8 +29867,11 @@
       <c r="L25" s="1">
         <v>12</v>
       </c>
+      <c r="M25" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>125</v>
       </c>
@@ -27289,8 +29896,11 @@
       <c r="L26" s="1">
         <v>10</v>
       </c>
+      <c r="M26" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>85</v>
       </c>
@@ -27315,8 +29925,11 @@
       <c r="L27" s="1">
         <v>13</v>
       </c>
+      <c r="M27" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>88</v>
       </c>
@@ -27341,8 +29954,11 @@
       <c r="L28" s="1">
         <v>10</v>
       </c>
+      <c r="M28" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>1283</v>
       </c>
@@ -27367,8 +29983,11 @@
       <c r="L29" s="1">
         <v>10</v>
       </c>
+      <c r="M29" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>80</v>
       </c>
@@ -27393,8 +30012,11 @@
       <c r="L30" s="1">
         <v>12</v>
       </c>
+      <c r="M30" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>84</v>
       </c>
@@ -27419,8 +30041,11 @@
       <c r="L31" s="1">
         <v>13</v>
       </c>
+      <c r="M31" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>84</v>
       </c>
@@ -27445,8 +30070,11 @@
       <c r="L32" s="1">
         <v>11</v>
       </c>
+      <c r="M32" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>82</v>
       </c>
@@ -27470,6 +30098,9 @@
       </c>
       <c r="L33" s="1">
         <v>12</v>
+      </c>
+      <c r="M33" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -27485,10 +30116,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27504,71 +30135,83 @@
     <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.5" customWidth="1"/>
+    <col min="15" max="15" width="24.6640625" customWidth="1"/>
+    <col min="16" max="16" width="21.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>13874</v>
       </c>
@@ -27602,8 +30245,14 @@
       <c r="L3" s="1">
         <v>9347</v>
       </c>
+      <c r="M3" s="1">
+        <v>5830</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>4096</v>
       </c>
@@ -27637,8 +30286,14 @@
       <c r="L4" s="1">
         <v>2322</v>
       </c>
+      <c r="M4" s="1">
+        <v>3460</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>399</v>
       </c>
@@ -27672,8 +30327,14 @@
       <c r="L5" s="1">
         <v>46</v>
       </c>
+      <c r="M5" s="1">
+        <v>1927</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>237</v>
       </c>
@@ -27707,8 +30368,14 @@
       <c r="L6" s="1">
         <v>54</v>
       </c>
+      <c r="M6" s="1">
+        <v>2286</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>248</v>
       </c>
@@ -27742,8 +30409,14 @@
       <c r="L7" s="1">
         <v>749</v>
       </c>
+      <c r="M7" s="1">
+        <v>3071</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>1368</v>
       </c>
@@ -27777,8 +30450,14 @@
       <c r="L8" s="1">
         <v>50</v>
       </c>
+      <c r="M8" s="1">
+        <v>34</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>265</v>
       </c>
@@ -27812,8 +30491,14 @@
       <c r="L9" s="1">
         <v>48</v>
       </c>
+      <c r="M9" s="1">
+        <v>37</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>317</v>
       </c>
@@ -27847,8 +30532,14 @@
       <c r="L10" s="1">
         <v>44</v>
       </c>
+      <c r="M10" s="1">
+        <v>38</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>566</v>
       </c>
@@ -27882,8 +30573,14 @@
       <c r="L11" s="1">
         <v>53</v>
       </c>
+      <c r="M11" s="1">
+        <v>40</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>265</v>
       </c>
@@ -27917,8 +30614,14 @@
       <c r="L12" s="1">
         <v>59</v>
       </c>
+      <c r="M12" s="1">
+        <v>37</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>260</v>
       </c>
@@ -27952,8 +30655,14 @@
       <c r="L13" s="1">
         <v>47</v>
       </c>
+      <c r="M13" s="1">
+        <v>35</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>770</v>
       </c>
@@ -27987,8 +30696,14 @@
       <c r="L14" s="1">
         <v>44</v>
       </c>
+      <c r="M14" s="1">
+        <v>38</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>256</v>
       </c>
@@ -28022,8 +30737,14 @@
       <c r="L15" s="1">
         <v>78</v>
       </c>
+      <c r="M15" s="1">
+        <v>61</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>256</v>
       </c>
@@ -28057,8 +30778,14 @@
       <c r="L16" s="1">
         <v>813</v>
       </c>
+      <c r="M16" s="1">
+        <v>1189</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>267</v>
       </c>
@@ -28092,8 +30819,14 @@
       <c r="L17" s="1">
         <v>2324</v>
       </c>
+      <c r="M17" s="1">
+        <v>1212</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>3368</v>
       </c>
@@ -28127,8 +30860,14 @@
       <c r="L18" s="1">
         <v>45</v>
       </c>
+      <c r="M18" s="1">
+        <v>34</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>273</v>
       </c>
@@ -28162,8 +30901,14 @@
       <c r="L19" s="1">
         <v>855</v>
       </c>
+      <c r="M19" s="1">
+        <v>36</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>271</v>
       </c>
@@ -28197,8 +30942,14 @@
       <c r="L20" s="1">
         <v>43</v>
       </c>
+      <c r="M20" s="1">
+        <v>34</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>632</v>
       </c>
@@ -28232,8 +30983,14 @@
       <c r="L21" s="1">
         <v>47</v>
       </c>
+      <c r="M21" s="1">
+        <v>33</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>268</v>
       </c>
@@ -28267,8 +31024,14 @@
       <c r="L22" s="1">
         <v>45</v>
       </c>
+      <c r="M22" s="1">
+        <v>36</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>258</v>
       </c>
@@ -28302,8 +31065,14 @@
       <c r="L23" s="1">
         <v>51</v>
       </c>
+      <c r="M23" s="1">
+        <v>37</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>290</v>
       </c>
@@ -28328,8 +31097,14 @@
       <c r="L24" s="1">
         <v>42</v>
       </c>
+      <c r="M24" s="1">
+        <v>33</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>489</v>
       </c>
@@ -28354,8 +31129,14 @@
       <c r="L25" s="1">
         <v>43</v>
       </c>
+      <c r="M25" s="1">
+        <v>34</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>1358</v>
       </c>
@@ -28380,8 +31161,14 @@
       <c r="L26" s="1">
         <v>57</v>
       </c>
+      <c r="M26" s="1">
+        <v>36</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>3126</v>
       </c>
@@ -28406,8 +31193,14 @@
       <c r="L27" s="1">
         <v>43</v>
       </c>
+      <c r="M27" s="1">
+        <v>39</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>279</v>
       </c>
@@ -28432,8 +31225,14 @@
       <c r="L28" s="1">
         <v>46</v>
       </c>
+      <c r="M28" s="1">
+        <v>52</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>282</v>
       </c>
@@ -28458,8 +31257,14 @@
       <c r="L29" s="1">
         <v>41</v>
       </c>
+      <c r="M29" s="1">
+        <v>38</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>472</v>
       </c>
@@ -28484,8 +31289,14 @@
       <c r="L30" s="1">
         <v>48</v>
       </c>
+      <c r="M30" s="1">
+        <v>35</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>303</v>
       </c>
@@ -28510,8 +31321,14 @@
       <c r="L31" s="1">
         <v>44</v>
       </c>
+      <c r="M31" s="1">
+        <v>33</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>481</v>
       </c>
@@ -28536,8 +31353,14 @@
       <c r="L32" s="1">
         <v>52</v>
       </c>
+      <c r="M32" s="1">
+        <v>33</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>363</v>
       </c>
@@ -28562,6 +31385,12 @@
       <c r="L33" s="1">
         <v>45</v>
       </c>
+      <c r="M33" s="1">
+        <v>38</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -28576,10 +31405,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28588,77 +31417,98 @@
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41" customWidth="1"/>
+    <col min="14" max="14" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>6864</v>
       </c>
@@ -28692,8 +31542,11 @@
       <c r="L3" s="1">
         <v>1057</v>
       </c>
+      <c r="M3" s="1">
+        <v>998</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2020</v>
       </c>
@@ -28727,8 +31580,11 @@
       <c r="L4" s="1">
         <v>925</v>
       </c>
+      <c r="M4" s="1">
+        <v>296</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>44</v>
       </c>
@@ -28762,8 +31618,11 @@
       <c r="L5" s="1">
         <v>12</v>
       </c>
+      <c r="M5" s="1">
+        <v>178</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>25</v>
       </c>
@@ -28797,8 +31656,11 @@
       <c r="L6" s="1">
         <v>6</v>
       </c>
+      <c r="M6" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>27</v>
       </c>
@@ -28832,8 +31694,11 @@
       <c r="L7" s="1">
         <v>534</v>
       </c>
+      <c r="M7" s="1">
+        <v>288</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>26</v>
       </c>
@@ -28867,8 +31732,11 @@
       <c r="L8" s="1">
         <v>6</v>
       </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>27</v>
       </c>
@@ -28902,8 +31770,11 @@
       <c r="L9" s="1">
         <v>579</v>
       </c>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>30</v>
       </c>
@@ -28937,8 +31808,11 @@
       <c r="L10" s="1">
         <v>3</v>
       </c>
+      <c r="M10" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>32</v>
       </c>
@@ -28972,8 +31846,11 @@
       <c r="L11" s="1">
         <v>4</v>
       </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>29</v>
       </c>
@@ -29007,8 +31884,11 @@
       <c r="L12" s="1">
         <v>3</v>
       </c>
+      <c r="M12" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>31</v>
       </c>
@@ -29042,8 +31922,11 @@
       <c r="L13" s="1">
         <v>4</v>
       </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>29</v>
       </c>
@@ -29077,8 +31960,11 @@
       <c r="L14" s="1">
         <v>4</v>
       </c>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>33</v>
       </c>
@@ -29112,8 +31998,11 @@
       <c r="L15" s="1">
         <v>3</v>
       </c>
+      <c r="M15" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>29</v>
       </c>
@@ -29147,8 +32036,11 @@
       <c r="L16" s="1">
         <v>3</v>
       </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>27</v>
       </c>
@@ -29182,8 +32074,11 @@
       <c r="L17" s="1">
         <v>4</v>
       </c>
+      <c r="M17" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>33</v>
       </c>
@@ -29217,8 +32112,11 @@
       <c r="L18" s="1">
         <v>3</v>
       </c>
+      <c r="M18" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>29</v>
       </c>
@@ -29252,8 +32150,11 @@
       <c r="L19" s="1">
         <v>4</v>
       </c>
+      <c r="M19" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>30</v>
       </c>
@@ -29287,8 +32188,11 @@
       <c r="L20" s="1">
         <v>9</v>
       </c>
+      <c r="M20" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>175</v>
       </c>
@@ -29322,8 +32226,11 @@
       <c r="L21" s="1">
         <v>1</v>
       </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>27</v>
       </c>
@@ -29357,8 +32264,11 @@
       <c r="L22" s="1">
         <v>2</v>
       </c>
+      <c r="M22" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>31</v>
       </c>
@@ -29392,8 +32302,11 @@
       <c r="L23" s="1">
         <v>2</v>
       </c>
+      <c r="M23" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>32</v>
       </c>
@@ -29418,8 +32331,11 @@
       <c r="L24" s="1">
         <v>3</v>
       </c>
+      <c r="M24" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>33</v>
       </c>
@@ -29444,8 +32360,11 @@
       <c r="L25" s="1">
         <v>3</v>
       </c>
+      <c r="M25" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>35</v>
       </c>
@@ -29470,8 +32389,11 @@
       <c r="L26" s="1">
         <v>2</v>
       </c>
+      <c r="M26" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>32</v>
       </c>
@@ -29496,8 +32418,11 @@
       <c r="L27" s="1">
         <v>2</v>
       </c>
+      <c r="M27" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>31</v>
       </c>
@@ -29522,8 +32447,11 @@
       <c r="L28" s="1">
         <v>2</v>
       </c>
+      <c r="M28" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>33</v>
       </c>
@@ -29548,8 +32476,11 @@
       <c r="L29" s="1">
         <v>2</v>
       </c>
+      <c r="M29" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>31</v>
       </c>
@@ -29574,8 +32505,11 @@
       <c r="L30" s="1">
         <v>3</v>
       </c>
+      <c r="M30" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>32</v>
       </c>
@@ -29600,8 +32534,11 @@
       <c r="L31" s="1">
         <v>2</v>
       </c>
+      <c r="M31" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>31</v>
       </c>
@@ -29626,8 +32563,11 @@
       <c r="L32" s="1">
         <v>2</v>
       </c>
+      <c r="M32" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>34</v>
       </c>
@@ -29651,6 +32591,9 @@
       </c>
       <c r="L33" s="1">
         <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/org.metaborg.lang.tiger.example/microbenchmarks/graalvm-timings.xlsx
+++ b/org.metaborg.lang.tiger.example/microbenchmarks/graalvm-timings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="32740" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="32740" windowHeight="20540" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="branching" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="18">
   <si>
     <t>Exc native</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>d4c50358 -- boolean matching + dispatch chains</t>
+  </si>
+  <si>
+    <t>013fe88 -- syntax changes</t>
+  </si>
+  <si>
+    <t>b80d0d1 -- fast eq</t>
   </si>
 </sst>
 </file>
@@ -144,8 +150,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -168,15 +178,19 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1743,6 +1757,142 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>branching!$N$1:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>b80d0d1 -- fast eq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>013fe88 -- syntax changes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>branching!$N$3:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>976.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1453.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>731.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>719.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.0</c:v>
@@ -2009,14 +2159,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'break-intensive'!$B$1:$B$2</c:f>
+              <c:f>'break-intensive'!$C$1:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Exc native</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cccf266127</c:v>
+                  <c:v>ec7f9cbb -- opt list match</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2035,72 +2185,72 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'break-intensive'!$B$3:$B$33</c:f>
+              <c:f>'break-intensive'!$C$3:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>8039.0</c:v>
+                  <c:v>7546.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1390.0</c:v>
+                  <c:v>1182.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>267.0</c:v>
+                  <c:v>226.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>226.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>244.0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>248.0</c:v>
+                  <c:v>341.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>376.0</c:v>
+                  <c:v>239.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>458.0</c:v>
+                  <c:v>425.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>246.0</c:v>
+                  <c:v>469.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>481.0</c:v>
+                  <c:v>236.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>298.0</c:v>
+                  <c:v>305.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>249.0</c:v>
+                  <c:v>259.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>243.0</c:v>
+                  <c:v>2025.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2287.0</c:v>
+                  <c:v>234.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>538.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>236.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>234.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>259.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>603.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>254.0</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>235.0</c:v>
+                  <c:v>236.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>238.0</c:v>
+                  <c:v>670.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2112,14 +2262,14 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'break-intensive'!$C$1:$C$2</c:f>
+              <c:f>'break-intensive'!$D$1:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Exc native</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ec7f9cbb -- opt list match</c:v>
+                  <c:v>9fc5904f -- call target align</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2138,72 +2288,72 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'break-intensive'!$C$3:$C$33</c:f>
+              <c:f>'break-intensive'!$D$3:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>7546.0</c:v>
+                  <c:v>10184.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1182.0</c:v>
+                  <c:v>3311.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>226.0</c:v>
+                  <c:v>198.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>219.0</c:v>
+                  <c:v>187.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>226.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>341.0</c:v>
+                  <c:v>405.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>239.0</c:v>
+                  <c:v>193.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>425.0</c:v>
+                  <c:v>196.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>469.0</c:v>
+                  <c:v>202.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>236.0</c:v>
+                  <c:v>536.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>305.0</c:v>
+                  <c:v>271.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>259.0</c:v>
+                  <c:v>223.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2025.0</c:v>
+                  <c:v>197.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>234.0</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>239.0</c:v>
+                  <c:v>2571.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>256.0</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>538.0</c:v>
+                  <c:v>207.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>227.0</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>236.0</c:v>
+                  <c:v>201.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>236.0</c:v>
+                  <c:v>619.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>670.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2215,14 +2365,14 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'break-intensive'!$D$1:$D$2</c:f>
+              <c:f>'break-intensive'!$E$1:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Exc native</c:v>
+                  <c:v>fd949da2 -- pure loops &amp; pure exceptions</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9fc5904f -- call target align</c:v>
+                  <c:v>8dcfb9d -- w/o rule cloning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2241,72 +2391,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'break-intensive'!$D$3:$D$33</c:f>
+              <c:f>'break-intensive'!$E$3:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>10184.0</c:v>
+                  <c:v>19650.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3311.0</c:v>
+                  <c:v>2577.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>198.0</c:v>
+                  <c:v>615.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>187.0</c:v>
+                  <c:v>388.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200.0</c:v>
+                  <c:v>771.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>405.0</c:v>
+                  <c:v>482.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>193.0</c:v>
+                  <c:v>2663.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>196.0</c:v>
+                  <c:v>409.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>202.0</c:v>
+                  <c:v>401.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>536.0</c:v>
+                  <c:v>770.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>271.0</c:v>
+                  <c:v>414.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>223.0</c:v>
+                  <c:v>912.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>197.0</c:v>
+                  <c:v>445.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>205.0</c:v>
+                  <c:v>766.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2571.0</c:v>
+                  <c:v>416.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>205.0</c:v>
+                  <c:v>3755.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>207.0</c:v>
+                  <c:v>413.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>205.0</c:v>
+                  <c:v>743.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>201.0</c:v>
+                  <c:v>418.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>619.0</c:v>
+                  <c:v>723.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>200.0</c:v>
+                  <c:v>634.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>412.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2917.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>420.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>511.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>638.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>424.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>662.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>434.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>650.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>413.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,14 +2498,14 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'break-intensive'!$E$1:$E$2</c:f>
+              <c:f>'break-intensive'!$F$1:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>fd949da2 -- pure loops &amp; pure exceptions</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8dcfb9d -- w/o rule cloning</c:v>
+                  <c:v>7763c07-- w/ rule cloning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2344,102 +2524,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'break-intensive'!$E$3:$E$33</c:f>
+              <c:f>'break-intensive'!$F$3:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>19650.0</c:v>
+                  <c:v>20472.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2577.0</c:v>
+                  <c:v>3314.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>615.0</c:v>
+                  <c:v>2355.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>388.0</c:v>
+                  <c:v>446.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>771.0</c:v>
+                  <c:v>681.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>482.0</c:v>
+                  <c:v>540.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2663.0</c:v>
+                  <c:v>2180.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>409.0</c:v>
+                  <c:v>477.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>401.0</c:v>
+                  <c:v>849.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>468.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>491.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>845.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>497.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3037.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>476.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>770.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>414.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>912.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>445.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>766.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>416.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3755.0</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>413.0</c:v>
+                  <c:v>519.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>743.0</c:v>
+                  <c:v>480.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>418.0</c:v>
+                  <c:v>716.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>723.0</c:v>
+                  <c:v>468.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>634.0</c:v>
+                  <c:v>744.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>412.0</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2917.0</c:v>
+                  <c:v>3795.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>420.0</c:v>
+                  <c:v>474.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>511.0</c:v>
+                  <c:v>632.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>638.0</c:v>
+                  <c:v>477.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>424.0</c:v>
+                  <c:v>475.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>662.0</c:v>
+                  <c:v>685.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>434.0</c:v>
+                  <c:v>477.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>650.0</c:v>
+                  <c:v>1004.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>413.0</c:v>
+                  <c:v>474.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2451,14 +2631,14 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'break-intensive'!$F$1:$F$2</c:f>
+              <c:f>'break-intensive'!$G$1:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>fd949da2 -- pure loops &amp; pure exceptions</c:v>
+                  <c:v>925d055 -- native loops &amp; native exceptions</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7763c07-- w/ rule cloning</c:v>
+                  <c:v>8dcfb9d -- w/o rule cloning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2477,102 +2657,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'break-intensive'!$F$3:$F$33</c:f>
+              <c:f>'break-intensive'!$G$3:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>20472.0</c:v>
+                  <c:v>16200.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3314.0</c:v>
+                  <c:v>4832.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2355.0</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>446.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>681.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>540.0</c:v>
+                  <c:v>201.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2180.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>477.0</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>849.0</c:v>
+                  <c:v>429.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>468.0</c:v>
+                  <c:v>3656.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>491.0</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>845.0</c:v>
+                  <c:v>223.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>497.0</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3037.0</c:v>
+                  <c:v>1723.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>476.0</c:v>
+                  <c:v>201.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>770.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>519.0</c:v>
+                  <c:v>212.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>480.0</c:v>
+                  <c:v>206.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>716.0</c:v>
+                  <c:v>367.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>468.0</c:v>
+                  <c:v>202.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>744.0</c:v>
+                  <c:v>207.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>560.0</c:v>
+                  <c:v>209.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3795.0</c:v>
+                  <c:v>207.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>474.0</c:v>
+                  <c:v>397.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>632.0</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>477.0</c:v>
+                  <c:v>206.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>475.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>685.0</c:v>
+                  <c:v>221.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>477.0</c:v>
+                  <c:v>515.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1004.0</c:v>
+                  <c:v>224.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>474.0</c:v>
+                  <c:v>222.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2584,14 +2764,14 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'break-intensive'!$G$1:$G$2</c:f>
+              <c:f>'break-intensive'!$H$1:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>925d055 -- native loops &amp; native exceptions</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8dcfb9d -- w/o rule cloning</c:v>
+                  <c:v>7763c07-- w/ rule cloning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2610,102 +2790,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'break-intensive'!$G$3:$G$33</c:f>
+              <c:f>'break-intensive'!$H$3:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>16200.0</c:v>
+                  <c:v>13259.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4832.0</c:v>
+                  <c:v>6119.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>182.0</c:v>
+                  <c:v>184.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>284.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>338.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2040.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>246.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>202.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1569.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>209.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>211.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>482.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>200.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="20">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>453.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>201.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>199.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>192.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>429.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3656.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>260.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>223.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>210.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1723.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>201.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>212.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>206.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>367.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>202.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>535.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>207.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>209.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>207.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>397.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>215.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>206.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>220.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>221.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>515.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>224.0</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>222.0</c:v>
+                  <c:v>228.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2717,14 +2897,14 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'break-intensive'!$H$1:$H$2</c:f>
+              <c:f>'break-intensive'!$I$1:$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>925d055 -- native loops &amp; native exceptions</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7763c07-- w/ rule cloning</c:v>
+                  <c:v>3bab370 -- extra boundaries</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2745,102 +2925,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'break-intensive'!$H$3:$H$33</c:f>
+              <c:f>'break-intensive'!$I$3:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>13259.0</c:v>
+                  <c:v>13209.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6119.0</c:v>
+                  <c:v>6008.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>184.0</c:v>
+                  <c:v>223.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>284.0</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187.0</c:v>
+                  <c:v>213.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>186.0</c:v>
+                  <c:v>217.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>196.0</c:v>
+                  <c:v>354.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>338.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>186.0</c:v>
+                  <c:v>222.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2040.0</c:v>
+                  <c:v>2228.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>246.0</c:v>
+                  <c:v>286.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>202.0</c:v>
+                  <c:v>1707.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>201.0</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1569.0</c:v>
+                  <c:v>224.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>209.0</c:v>
+                  <c:v>234.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>205.0</c:v>
+                  <c:v>229.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>211.0</c:v>
+                  <c:v>488.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>482.0</c:v>
+                  <c:v>238.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>203.0</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200.0</c:v>
+                  <c:v>238.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>194.0</c:v>
+                  <c:v>621.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>208.0</c:v>
+                  <c:v>282.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>453.0</c:v>
+                  <c:v>242.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>201.0</c:v>
+                  <c:v>381.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>205.0</c:v>
+                  <c:v>239.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>208.0</c:v>
+                  <c:v>579.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>197.0</c:v>
+                  <c:v>236.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>535.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>198.0</c:v>
+                  <c:v>238.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>207.0</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>228.0</c:v>
+                  <c:v>579.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,14 +3032,14 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'break-intensive'!$I$1:$I$2</c:f>
+              <c:f>'break-intensive'!$J$1:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>925d055 -- native loops &amp; native exceptions</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3bab370 -- extra boundaries</c:v>
+                  <c:v>0e36266 -- leaf checks</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2880,102 +3060,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'break-intensive'!$I$3:$I$33</c:f>
+              <c:f>'break-intensive'!$J$3:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>13209.0</c:v>
+                  <c:v>9863.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6008.0</c:v>
+                  <c:v>5433.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210.0</c:v>
+                  <c:v>291.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213.0</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>202.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1889.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>458.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>209.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>450.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>217.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>354.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>220.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>222.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2228.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>286.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1707.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>245.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>224.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>234.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>229.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>488.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>238.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>230.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>238.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>621.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>282.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>242.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>381.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>239.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>579.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>236.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>240.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>238.0</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>235.0</c:v>
+                  <c:v>208.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>579.0</c:v>
+                  <c:v>534.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2987,14 +3167,14 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'break-intensive'!$J$1:$J$2</c:f>
+              <c:f>'break-intensive'!$K$1:$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>925d055 -- native loops &amp; native exceptions</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0e36266 -- leaf checks</c:v>
+                  <c:v>0b62d241 -- shallow rules</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3015,102 +3195,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'break-intensive'!$J$3:$J$33</c:f>
+              <c:f>'break-intensive'!$K$3:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9863.0</c:v>
+                  <c:v>6503.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5433.0</c:v>
+                  <c:v>3109.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>214.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>291.0</c:v>
+                  <c:v>295.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>182.0</c:v>
+                  <c:v>224.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>197.0</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>305.0</c:v>
+                  <c:v>343.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>190.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>182.0</c:v>
+                  <c:v>350.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2002.0</c:v>
+                  <c:v>2247.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>250.0</c:v>
+                  <c:v>493.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>207.0</c:v>
+                  <c:v>233.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>390.0</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>193.0</c:v>
+                  <c:v>1564.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>194.0</c:v>
+                  <c:v>227.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>202.0</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>265.0</c:v>
+                  <c:v>227.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1889.0</c:v>
+                  <c:v>470.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>197.0</c:v>
+                  <c:v>268.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>196.0</c:v>
+                  <c:v>253.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>203.0</c:v>
+                  <c:v>236.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>458.0</c:v>
+                  <c:v>410.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>204.0</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>201.0</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>207.0</c:v>
+                  <c:v>232.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>209.0</c:v>
+                  <c:v>454.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>450.0</c:v>
+                  <c:v>246.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>215.0</c:v>
+                  <c:v>238.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>217.0</c:v>
+                  <c:v>244.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>208.0</c:v>
+                  <c:v>573.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>534.0</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3122,14 +3302,14 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'break-intensive'!$K$1:$K$2</c:f>
+              <c:f>'break-intensive'!$L$1:$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>925d055 -- native loops &amp; native exceptions</c:v>
+                  <c:v>8d4e3d -- native frames</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0b62d241 -- shallow rules</c:v>
+                  <c:v>956edf -- native frames</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3150,102 +3330,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'break-intensive'!$K$3:$K$33</c:f>
+              <c:f>'break-intensive'!$L$3:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6503.0</c:v>
+                  <c:v>3470.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3109.0</c:v>
+                  <c:v>3506.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>214.0</c:v>
+                  <c:v>2536.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>295.0</c:v>
+                  <c:v>1061.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>224.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>225.0</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>343.0</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>220.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>350.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2247.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>493.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>233.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>230.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1564.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>227.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>230.0</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>227.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>470.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>268.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>253.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>236.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>410.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>235.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>230.0</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>232.0</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>454.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>246.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>238.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>244.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>573.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>245.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3257,14 +3437,14 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'break-intensive'!$L$1:$L$2</c:f>
+              <c:f>'break-intensive'!$M$1:$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>8d4e3d -- native frames</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>956edf -- native frames</c:v>
+                  <c:v>d4c50358 -- boolean matching + dispatch chains</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3285,102 +3465,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'break-intensive'!$L$3:$L$33</c:f>
+              <c:f>'break-intensive'!$M$3:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3470.0</c:v>
+                  <c:v>3692.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3506.0</c:v>
+                  <c:v>1314.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2536.0</c:v>
+                  <c:v>1832.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1061.0</c:v>
+                  <c:v>712.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.0</c:v>
+                  <c:v>1022.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>389.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>29.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28.0</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>28.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>57.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>56.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>27.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3392,14 +3572,14 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'break-intensive'!$M$1:$M$2</c:f>
+              <c:f>'break-intensive'!$N$1:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8d4e3d -- native frames</c:v>
+                  <c:v>b80d0d1 -- fast eq</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>d4c50358 -- boolean matching + dispatch chains</c:v>
+                  <c:v>013fe88 -- syntax changes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3420,102 +3600,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'break-intensive'!$M$3:$M$33</c:f>
+              <c:f>'break-intensive'!$N$3:$N$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3692.0</c:v>
+                  <c:v>4117.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1314.0</c:v>
+                  <c:v>1571.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1832.0</c:v>
+                  <c:v>1968.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>712.0</c:v>
+                  <c:v>811.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1022.0</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>389.0</c:v>
+                  <c:v>411.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.0</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>21.0</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>22.0</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>23.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5280,6 +5460,142 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>23.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list!$N$1:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>b80d0d1 -- fast eq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>013fe88 -- syntax changes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>list!$N$3:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>14827.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7418.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1415.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1039.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>533.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7051,6 +7367,142 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>permute!$N$1:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>b80d0d1 -- fast eq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>013fe88 -- syntax changes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>permute!$N$3:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>4293.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2350.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1796.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2127.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1129.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>514.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>476.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -8806,6 +9258,142 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'queens-looped'!$N$1:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>b80d0d1 -- fast eq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>013fe88 -- syntax changes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'queens-looped'!$N$3:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>3671.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1697.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>578.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>551.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>10.0</c:v>
@@ -10579,6 +11167,142 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>queens2!$N$1:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>b80d0d1 -- fast eq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>013fe88 -- syntax changes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>queens2!$N$3:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>10862.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5776.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1121.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1414.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1469.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1496.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>810.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>892.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>881.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -12337,6 +13061,142 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sieve!$N$1:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>b80d0d1 -- fast eq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>013fe88 -- syntax changes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sieve!$N$3:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>10077.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9141.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3053.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2748.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1960.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1190.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>633.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>392.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14107,6 +14967,142 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>towers!$N$1:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>b80d0d1 -- fast eq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>013fe88 -- syntax changes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>towers!$N$3:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>6318.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3336.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2092.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1068.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1185.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -15865,6 +16861,142 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'while-loop'!$N$1:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>b80d0d1 -- fast eq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>013fe88 -- syntax changes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'while-loop'!$N$3:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>988.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>271.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21648,10 +22780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M33"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21672,7 +22804,7 @@
     <col min="14" max="14" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -21698,8 +22830,11 @@
       <c r="M1" t="s">
         <v>13</v>
       </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -21739,8 +22874,11 @@
       <c r="M2" t="s">
         <v>15</v>
       </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1922</v>
       </c>
@@ -21777,8 +22915,11 @@
       <c r="M3" s="1">
         <v>875</v>
       </c>
+      <c r="N3" s="1">
+        <v>976</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2582</v>
       </c>
@@ -21815,8 +22956,11 @@
       <c r="M4" s="1">
         <v>1390</v>
       </c>
+      <c r="N4" s="1">
+        <v>1453</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -21853,8 +22997,11 @@
       <c r="M5" s="1">
         <v>720</v>
       </c>
+      <c r="N5" s="1">
+        <v>731</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -21891,8 +23038,11 @@
       <c r="M6" s="1">
         <v>698</v>
       </c>
+      <c r="N6" s="1">
+        <v>719</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -21929,8 +23079,11 @@
       <c r="M7" s="1">
         <v>368</v>
       </c>
+      <c r="N7" s="1">
+        <v>365</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -21967,8 +23120,11 @@
       <c r="M8" s="1">
         <v>367</v>
       </c>
+      <c r="N8" s="1">
+        <v>460</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -22005,8 +23161,11 @@
       <c r="M9" s="1">
         <v>390</v>
       </c>
+      <c r="N9" s="1">
+        <v>525</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -22043,8 +23202,11 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>3</v>
       </c>
@@ -22081,8 +23243,11 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -22119,8 +23284,11 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -22157,8 +23325,11 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>2</v>
       </c>
@@ -22195,8 +23366,11 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -22233,8 +23407,11 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -22271,8 +23448,11 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -22309,8 +23489,11 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>5</v>
       </c>
@@ -22347,8 +23530,11 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -22385,8 +23571,11 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>7</v>
       </c>
@@ -22423,8 +23612,11 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -22461,8 +23653,11 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -22499,8 +23694,11 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -22537,8 +23735,11 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>3</v>
       </c>
@@ -22566,8 +23767,11 @@
       <c r="M24" s="1">
         <v>1</v>
       </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>3</v>
       </c>
@@ -22595,8 +23799,11 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>3</v>
       </c>
@@ -22624,8 +23831,11 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>3</v>
       </c>
@@ -22653,8 +23863,11 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>4</v>
       </c>
@@ -22682,8 +23895,11 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>5</v>
       </c>
@@ -22711,8 +23927,11 @@
       <c r="M29" s="1">
         <v>1</v>
       </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>4</v>
       </c>
@@ -22740,8 +23959,11 @@
       <c r="M30" s="1">
         <v>0</v>
       </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>6</v>
       </c>
@@ -22769,8 +23991,11 @@
       <c r="M31" s="1">
         <v>0</v>
       </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>2</v>
       </c>
@@ -22798,8 +24023,11 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>2</v>
       </c>
@@ -22825,6 +24053,9 @@
         <v>1</v>
       </c>
       <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -22843,8 +24074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22890,6 +24121,9 @@
       <c r="M1" t="s">
         <v>13</v>
       </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -22931,6 +24165,9 @@
       <c r="M2" t="s">
         <v>15</v>
       </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
@@ -22969,7 +24206,9 @@
       <c r="M3" s="1">
         <v>3692</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1">
+        <v>4117</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
@@ -23008,7 +24247,9 @@
       <c r="M4" s="1">
         <v>1314</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1">
+        <v>1571</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
@@ -23047,7 +24288,9 @@
       <c r="M5" s="1">
         <v>1832</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1">
+        <v>1968</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
@@ -23086,7 +24329,9 @@
       <c r="M6" s="1">
         <v>712</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>811</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -23125,7 +24370,9 @@
       <c r="M7" s="1">
         <v>1022</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>1100</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
@@ -23164,7 +24411,9 @@
       <c r="M8" s="1">
         <v>22</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
@@ -23203,7 +24452,9 @@
       <c r="M9" s="1">
         <v>389</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>411</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
@@ -23242,7 +24493,9 @@
       <c r="M10" s="1">
         <v>22</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
@@ -23281,7 +24534,9 @@
       <c r="M11" s="1">
         <v>21</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
@@ -23320,7 +24575,9 @@
       <c r="M12" s="1">
         <v>24</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
@@ -23359,7 +24616,9 @@
       <c r="M13" s="1">
         <v>22</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
@@ -23398,7 +24657,9 @@
       <c r="M14" s="1">
         <v>21</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
@@ -23437,7 +24698,9 @@
       <c r="M15" s="1">
         <v>24</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
@@ -23476,7 +24739,9 @@
       <c r="M16" s="1">
         <v>22</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
@@ -23515,7 +24780,9 @@
       <c r="M17" s="1">
         <v>21</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -23554,7 +24821,9 @@
       <c r="M18" s="1">
         <v>25</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
@@ -23593,7 +24862,9 @@
       <c r="M19" s="1">
         <v>23</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
@@ -23632,7 +24903,9 @@
       <c r="M20" s="1">
         <v>24</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
@@ -23671,7 +24944,9 @@
       <c r="M21" s="1">
         <v>22</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
@@ -23710,7 +24985,9 @@
       <c r="M22" s="1">
         <v>29</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
@@ -23749,7 +25026,9 @@
       <c r="M23" s="1">
         <v>20</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
@@ -23779,7 +25058,9 @@
       <c r="M24" s="1">
         <v>22</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
@@ -23809,7 +25090,9 @@
       <c r="M25" s="1">
         <v>23</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
@@ -23839,7 +25122,9 @@
       <c r="M26" s="1">
         <v>20</v>
       </c>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
@@ -23869,7 +25154,9 @@
       <c r="M27" s="1">
         <v>22</v>
       </c>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
@@ -23899,7 +25186,9 @@
       <c r="M28" s="1">
         <v>23</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
@@ -23929,7 +25218,9 @@
       <c r="M29" s="1">
         <v>21</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
@@ -23959,7 +25250,9 @@
       <c r="M30" s="1">
         <v>20</v>
       </c>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
@@ -23989,7 +25282,9 @@
       <c r="M31" s="1">
         <v>20</v>
       </c>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
@@ -24019,7 +25314,9 @@
       <c r="M32" s="1">
         <v>22</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="33" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
@@ -24049,7 +25346,9 @@
       <c r="M33" s="1">
         <v>23</v>
       </c>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -24067,7 +25366,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M33"/>
+      <selection activeCell="N3" sqref="N3:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24084,6 +25383,7 @@
     <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.83203125" customWidth="1"/>
+    <col min="14" max="14" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -24112,6 +25412,9 @@
       <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -24153,6 +25456,9 @@
       <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
@@ -24191,7 +25497,9 @@
       <c r="M3" s="1">
         <v>9259</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1">
+        <v>14827</v>
+      </c>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -24231,7 +25539,9 @@
       <c r="M4" s="1">
         <v>7900</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1">
+        <v>7418</v>
+      </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -24271,7 +25581,9 @@
       <c r="M5" s="1">
         <v>2114</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1">
+        <v>1415</v>
+      </c>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -24311,7 +25623,9 @@
       <c r="M6" s="1">
         <v>2674</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>1039</v>
+      </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -24351,7 +25665,9 @@
       <c r="M7" s="1">
         <v>1506</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>19</v>
+      </c>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -24391,7 +25707,9 @@
       <c r="M8" s="1">
         <v>2727</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>19</v>
+      </c>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -24431,7 +25749,9 @@
       <c r="M9" s="1">
         <v>4497</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>533</v>
+      </c>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -24471,7 +25791,9 @@
       <c r="M10" s="1">
         <v>312</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>19</v>
+      </c>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -24511,7 +25833,9 @@
       <c r="M11" s="1">
         <v>238</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>17</v>
+      </c>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -24551,7 +25875,9 @@
       <c r="M12" s="1">
         <v>20</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>18</v>
+      </c>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -24591,7 +25917,9 @@
       <c r="M13" s="1">
         <v>19</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>19</v>
+      </c>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -24631,7 +25959,9 @@
       <c r="M14" s="1">
         <v>19</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>22</v>
+      </c>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -24671,7 +26001,9 @@
       <c r="M15" s="1">
         <v>21</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>20</v>
+      </c>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -24711,7 +26043,9 @@
       <c r="M16" s="1">
         <v>22</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>21</v>
+      </c>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
@@ -24751,7 +26085,9 @@
       <c r="M17" s="1">
         <v>21</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>18</v>
+      </c>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
@@ -24791,7 +26127,9 @@
       <c r="M18" s="1">
         <v>28</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>18</v>
+      </c>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
@@ -24831,7 +26169,9 @@
       <c r="M19" s="1">
         <v>37</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>19</v>
+      </c>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
@@ -24871,7 +26211,9 @@
       <c r="M20" s="1">
         <v>72</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>21</v>
+      </c>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
@@ -24911,7 +26253,9 @@
       <c r="M21" s="1">
         <v>19</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>18</v>
+      </c>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
@@ -24951,7 +26295,9 @@
       <c r="M22" s="1">
         <v>19</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>57</v>
+      </c>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
@@ -24991,7 +26337,9 @@
       <c r="M23" s="1">
         <v>20</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>18</v>
+      </c>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
@@ -25022,7 +26370,9 @@
       <c r="M24" s="1">
         <v>22</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>19</v>
+      </c>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
@@ -25053,7 +26403,9 @@
       <c r="M25" s="1">
         <v>295</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>108</v>
+      </c>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
@@ -25084,7 +26436,9 @@
       <c r="M26" s="1">
         <v>20</v>
       </c>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1">
+        <v>19</v>
+      </c>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
@@ -25115,7 +26469,9 @@
       <c r="M27" s="1">
         <v>19</v>
       </c>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1">
+        <v>19</v>
+      </c>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
@@ -25146,7 +26502,9 @@
       <c r="M28" s="1">
         <v>20</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1">
+        <v>21</v>
+      </c>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
@@ -25177,7 +26535,9 @@
       <c r="M29" s="1">
         <v>20</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1">
+        <v>22</v>
+      </c>
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
@@ -25208,7 +26568,9 @@
       <c r="M30" s="1">
         <v>23</v>
       </c>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1">
+        <v>20</v>
+      </c>
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
@@ -25239,7 +26601,9 @@
       <c r="M31" s="1">
         <v>20</v>
       </c>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1">
+        <v>158</v>
+      </c>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
@@ -25270,7 +26634,9 @@
       <c r="M32" s="1">
         <v>27</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1">
+        <v>23</v>
+      </c>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="5:15" x14ac:dyDescent="0.2">
@@ -25301,7 +26667,9 @@
       <c r="M33" s="1">
         <v>23</v>
       </c>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1">
+        <v>32</v>
+      </c>
       <c r="O33" s="1"/>
     </row>
   </sheetData>
@@ -25319,8 +26687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M33"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25367,6 +26735,9 @@
       <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -25408,6 +26779,9 @@
       <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
@@ -25446,7 +26820,9 @@
       <c r="M3" s="1">
         <v>4127</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1">
+        <v>4293</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
@@ -25485,7 +26861,9 @@
       <c r="M4" s="1">
         <v>2416</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1">
+        <v>2350</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
@@ -25524,7 +26902,9 @@
       <c r="M5" s="1">
         <v>1588</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1">
+        <v>1796</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
@@ -25563,7 +26943,9 @@
       <c r="M6" s="1">
         <v>1576</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>2127</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -25602,7 +26984,9 @@
       <c r="M7" s="1">
         <v>1091</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>1129</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
@@ -25641,7 +27025,9 @@
       <c r="M8" s="1">
         <v>493</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>514</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
@@ -25680,7 +27066,9 @@
       <c r="M9" s="1">
         <v>20</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
@@ -25719,7 +27107,9 @@
       <c r="M10" s="1">
         <v>494</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>476</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
@@ -25758,7 +27148,9 @@
       <c r="M11" s="1">
         <v>17</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
@@ -25797,7 +27189,9 @@
       <c r="M12" s="1">
         <v>34</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
@@ -25836,7 +27230,9 @@
       <c r="M13" s="1">
         <v>46</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
@@ -25875,7 +27271,9 @@
       <c r="M14" s="1">
         <v>45</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
@@ -25914,7 +27312,9 @@
       <c r="M15" s="1">
         <v>21</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
@@ -25953,7 +27353,9 @@
       <c r="M16" s="1">
         <v>20</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
@@ -25992,7 +27394,9 @@
       <c r="M17" s="1">
         <v>19</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -26031,7 +27435,9 @@
       <c r="M18" s="1">
         <v>20</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
@@ -26070,7 +27476,9 @@
       <c r="M19" s="1">
         <v>18</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
@@ -26109,7 +27517,9 @@
       <c r="M20" s="1">
         <v>22</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
@@ -26148,7 +27558,9 @@
       <c r="M21" s="1">
         <v>17</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
@@ -26187,7 +27599,9 @@
       <c r="M22" s="1">
         <v>21</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
@@ -26226,7 +27640,9 @@
       <c r="M23" s="1">
         <v>21</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
@@ -26256,7 +27672,9 @@
       <c r="M24" s="1">
         <v>18</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
@@ -26286,7 +27704,9 @@
       <c r="M25" s="1">
         <v>20</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
@@ -26316,7 +27736,9 @@
       <c r="M26" s="1">
         <v>21</v>
       </c>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
@@ -26346,7 +27768,9 @@
       <c r="M27" s="1">
         <v>18</v>
       </c>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
@@ -26376,7 +27800,9 @@
       <c r="M28" s="1">
         <v>19</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
@@ -26406,7 +27832,9 @@
       <c r="M29" s="1">
         <v>18</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
@@ -26436,7 +27864,9 @@
       <c r="M30" s="1">
         <v>23</v>
       </c>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
@@ -26466,7 +27896,9 @@
       <c r="M31" s="1">
         <v>19</v>
       </c>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
@@ -26496,7 +27928,9 @@
       <c r="M32" s="1">
         <v>21</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
@@ -26526,7 +27960,9 @@
       <c r="M33" s="1">
         <v>18</v>
       </c>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -26541,10 +27977,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M33"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26564,7 +28000,7 @@
     <col min="13" max="13" width="40.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -26590,8 +28026,11 @@
       <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -26631,8 +28070,11 @@
       <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>9768</v>
       </c>
@@ -26669,8 +28111,11 @@
       <c r="M3" s="1">
         <v>4507</v>
       </c>
+      <c r="N3" s="1">
+        <v>3671</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>95</v>
       </c>
@@ -26707,8 +28152,11 @@
       <c r="M4" s="1">
         <v>1699</v>
       </c>
+      <c r="N4" s="1">
+        <v>1697</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>88</v>
       </c>
@@ -26745,8 +28193,11 @@
       <c r="M5" s="1">
         <v>579</v>
       </c>
+      <c r="N5" s="1">
+        <v>578</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>97</v>
       </c>
@@ -26783,8 +28234,11 @@
       <c r="M6" s="1">
         <v>617</v>
       </c>
+      <c r="N6" s="1">
+        <v>551</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>212</v>
       </c>
@@ -26821,8 +28275,11 @@
       <c r="M7" s="1">
         <v>15</v>
       </c>
+      <c r="N7" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>254</v>
       </c>
@@ -26859,8 +28316,11 @@
       <c r="M8" s="1">
         <v>14</v>
       </c>
+      <c r="N8" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>122</v>
       </c>
@@ -26897,8 +28357,11 @@
       <c r="M9" s="1">
         <v>10</v>
       </c>
+      <c r="N9" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>124</v>
       </c>
@@ -26935,8 +28398,11 @@
       <c r="M10" s="1">
         <v>10</v>
       </c>
+      <c r="N10" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>124</v>
       </c>
@@ -26973,8 +28439,11 @@
       <c r="M11" s="1">
         <v>10</v>
       </c>
+      <c r="N11" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>124</v>
       </c>
@@ -27011,8 +28480,11 @@
       <c r="M12" s="1">
         <v>10</v>
       </c>
+      <c r="N12" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>125</v>
       </c>
@@ -27049,8 +28521,11 @@
       <c r="M13" s="1">
         <v>11</v>
       </c>
+      <c r="N13" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>179</v>
       </c>
@@ -27087,8 +28562,11 @@
       <c r="M14" s="1">
         <v>10</v>
       </c>
+      <c r="N14" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>123</v>
       </c>
@@ -27125,8 +28603,11 @@
       <c r="M15" s="1">
         <v>11</v>
       </c>
+      <c r="N15" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>127</v>
       </c>
@@ -27163,8 +28644,11 @@
       <c r="M16" s="1">
         <v>11</v>
       </c>
+      <c r="N16" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>118</v>
       </c>
@@ -27201,8 +28685,11 @@
       <c r="M17" s="1">
         <v>10</v>
       </c>
+      <c r="N17" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>130</v>
       </c>
@@ -27239,8 +28726,11 @@
       <c r="M18" s="1">
         <v>12</v>
       </c>
+      <c r="N18" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>124</v>
       </c>
@@ -27277,8 +28767,11 @@
       <c r="M19" s="1">
         <v>11</v>
       </c>
+      <c r="N19" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>152</v>
       </c>
@@ -27315,8 +28808,11 @@
       <c r="M20" s="1">
         <v>13</v>
       </c>
+      <c r="N20" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>199</v>
       </c>
@@ -27353,8 +28849,11 @@
       <c r="M21" s="1">
         <v>13</v>
       </c>
+      <c r="N21" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>120</v>
       </c>
@@ -27391,8 +28890,11 @@
       <c r="M22" s="1">
         <v>23</v>
       </c>
+      <c r="N22" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>122</v>
       </c>
@@ -27429,8 +28931,11 @@
       <c r="M23" s="1">
         <v>10</v>
       </c>
+      <c r="N23" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>124</v>
       </c>
@@ -27458,8 +28963,11 @@
       <c r="M24" s="1">
         <v>10</v>
       </c>
+      <c r="N24" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>123</v>
       </c>
@@ -27487,8 +28995,11 @@
       <c r="M25" s="1">
         <v>10</v>
       </c>
+      <c r="N25" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>129</v>
       </c>
@@ -27516,8 +29027,11 @@
       <c r="M26" s="1">
         <v>9</v>
       </c>
+      <c r="N26" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>128</v>
       </c>
@@ -27545,8 +29059,11 @@
       <c r="M27" s="1">
         <v>11</v>
       </c>
+      <c r="N27" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>133</v>
       </c>
@@ -27574,8 +29091,11 @@
       <c r="M28" s="1">
         <v>10</v>
       </c>
+      <c r="N28" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>227</v>
       </c>
@@ -27603,8 +29123,11 @@
       <c r="M29" s="1">
         <v>11</v>
       </c>
+      <c r="N29" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>122</v>
       </c>
@@ -27632,8 +29155,11 @@
       <c r="M30" s="1">
         <v>12</v>
       </c>
+      <c r="N30" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>129</v>
       </c>
@@ -27661,8 +29187,11 @@
       <c r="M31" s="1">
         <v>10</v>
       </c>
+      <c r="N31" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>122</v>
       </c>
@@ -27690,8 +29219,11 @@
       <c r="M32" s="1">
         <v>12</v>
       </c>
+      <c r="N32" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>126</v>
       </c>
@@ -27717,6 +29249,9 @@
         <v>14</v>
       </c>
       <c r="M33" s="1">
+        <v>10</v>
+      </c>
+      <c r="N33" s="1">
         <v>10</v>
       </c>
     </row>
@@ -27733,10 +29268,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M33"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27753,9 +29288,10 @@
     <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -27781,8 +29317,11 @@
       <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -27822,8 +29361,11 @@
       <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>8368</v>
       </c>
@@ -27860,8 +29402,11 @@
       <c r="M3" s="1">
         <v>9588</v>
       </c>
+      <c r="N3" s="1">
+        <v>10862</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>3079</v>
       </c>
@@ -27898,8 +29443,11 @@
       <c r="M4" s="1">
         <v>4055</v>
       </c>
+      <c r="N4" s="1">
+        <v>5776</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>421</v>
       </c>
@@ -27936,8 +29484,11 @@
       <c r="M5" s="1">
         <v>2205</v>
       </c>
+      <c r="N5" s="1">
+        <v>1121</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>32</v>
       </c>
@@ -27974,8 +29525,11 @@
       <c r="M6" s="1">
         <v>2022</v>
       </c>
+      <c r="N6" s="1">
+        <v>1414</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>414</v>
       </c>
@@ -28012,8 +29566,11 @@
       <c r="M7" s="1">
         <v>1825</v>
       </c>
+      <c r="N7" s="1">
+        <v>1469</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>28</v>
       </c>
@@ -28050,8 +29607,11 @@
       <c r="M8" s="1">
         <v>2012</v>
       </c>
+      <c r="N8" s="1">
+        <v>1496</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>62</v>
       </c>
@@ -28088,8 +29648,11 @@
       <c r="M9" s="1">
         <v>1744</v>
       </c>
+      <c r="N9" s="1">
+        <v>810</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>31</v>
       </c>
@@ -28126,8 +29689,11 @@
       <c r="M10" s="1">
         <v>861</v>
       </c>
+      <c r="N10" s="1">
+        <v>892</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>3007</v>
       </c>
@@ -28164,8 +29730,11 @@
       <c r="M11" s="1">
         <v>872</v>
       </c>
+      <c r="N11" s="1">
+        <v>881</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>32</v>
       </c>
@@ -28202,8 +29771,11 @@
       <c r="M12" s="1">
         <v>2</v>
       </c>
+      <c r="N12" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>28</v>
       </c>
@@ -28240,8 +29812,11 @@
       <c r="M13" s="1">
         <v>2</v>
       </c>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>36</v>
       </c>
@@ -28278,8 +29853,11 @@
       <c r="M14" s="1">
         <v>2</v>
       </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>27</v>
       </c>
@@ -28316,8 +29894,11 @@
       <c r="M15" s="1">
         <v>2</v>
       </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>31</v>
       </c>
@@ -28354,8 +29935,11 @@
       <c r="M16" s="1">
         <v>2</v>
       </c>
+      <c r="N16" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>24</v>
       </c>
@@ -28392,8 +29976,11 @@
       <c r="M17" s="1">
         <v>2</v>
       </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>34</v>
       </c>
@@ -28430,8 +30017,11 @@
       <c r="M18" s="1">
         <v>2</v>
       </c>
+      <c r="N18" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>42</v>
       </c>
@@ -28468,8 +30058,11 @@
       <c r="M19" s="1">
         <v>1</v>
       </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>78</v>
       </c>
@@ -28506,8 +30099,11 @@
       <c r="M20" s="1">
         <v>2</v>
       </c>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -28544,8 +30140,11 @@
       <c r="M21" s="1">
         <v>2</v>
       </c>
+      <c r="N21" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -28582,8 +30181,11 @@
       <c r="M22" s="1">
         <v>2</v>
       </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -28620,8 +30222,11 @@
       <c r="M23" s="1">
         <v>2</v>
       </c>
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>102</v>
       </c>
@@ -28649,8 +30254,11 @@
       <c r="M24" s="1">
         <v>128</v>
       </c>
+      <c r="N24" s="1">
+        <v>130</v>
+      </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>307</v>
       </c>
@@ -28678,8 +30286,11 @@
       <c r="M25" s="1">
         <v>3</v>
       </c>
+      <c r="N25" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>15</v>
       </c>
@@ -28707,8 +30318,11 @@
       <c r="M26" s="1">
         <v>3</v>
       </c>
+      <c r="N26" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>16</v>
       </c>
@@ -28736,8 +30350,11 @@
       <c r="M27" s="1">
         <v>4</v>
       </c>
+      <c r="N27" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>66</v>
       </c>
@@ -28765,8 +30382,11 @@
       <c r="M28" s="1">
         <v>3</v>
       </c>
+      <c r="N28" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>18</v>
       </c>
@@ -28794,8 +30414,11 @@
       <c r="M29" s="1">
         <v>3</v>
       </c>
+      <c r="N29" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>17</v>
       </c>
@@ -28823,8 +30446,11 @@
       <c r="M30" s="1">
         <v>3</v>
       </c>
+      <c r="N30" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>27</v>
       </c>
@@ -28852,8 +30478,11 @@
       <c r="M31" s="1">
         <v>3</v>
       </c>
+      <c r="N31" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>26</v>
       </c>
@@ -28881,8 +30510,11 @@
       <c r="M32" s="1">
         <v>3</v>
       </c>
+      <c r="N32" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>18</v>
       </c>
@@ -28908,6 +30540,9 @@
         <v>4</v>
       </c>
       <c r="M33" s="1">
+        <v>2</v>
+      </c>
+      <c r="N33" s="1">
         <v>2</v>
       </c>
     </row>
@@ -28924,10 +30559,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M33"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28945,9 +30580,10 @@
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -28973,8 +30609,11 @@
       <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -29014,8 +30653,11 @@
       <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>14665</v>
       </c>
@@ -29052,8 +30694,11 @@
       <c r="M3" s="1">
         <v>9576</v>
       </c>
+      <c r="N3" s="1">
+        <v>10077</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>9607</v>
       </c>
@@ -29090,8 +30735,11 @@
       <c r="M4" s="1">
         <v>8933</v>
       </c>
+      <c r="N4" s="1">
+        <v>9141</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>84</v>
       </c>
@@ -29128,8 +30776,11 @@
       <c r="M5" s="1">
         <v>2716</v>
       </c>
+      <c r="N5" s="1">
+        <v>3053</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>93</v>
       </c>
@@ -29166,8 +30817,11 @@
       <c r="M6" s="1">
         <v>2333</v>
       </c>
+      <c r="N6" s="1">
+        <v>2748</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>213</v>
       </c>
@@ -29204,8 +30858,11 @@
       <c r="M7" s="1">
         <v>1561</v>
       </c>
+      <c r="N7" s="1">
+        <v>1960</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>109</v>
       </c>
@@ -29242,8 +30899,11 @@
       <c r="M8" s="1">
         <v>1224</v>
       </c>
+      <c r="N8" s="1">
+        <v>1190</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>93</v>
       </c>
@@ -29280,8 +30940,11 @@
       <c r="M9" s="1">
         <v>628</v>
       </c>
+      <c r="N9" s="1">
+        <v>633</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>81</v>
       </c>
@@ -29318,8 +30981,11 @@
       <c r="M10" s="1">
         <v>392</v>
       </c>
+      <c r="N10" s="1">
+        <v>392</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>90</v>
       </c>
@@ -29356,8 +31022,11 @@
       <c r="M11" s="1">
         <v>6</v>
       </c>
+      <c r="N11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>88</v>
       </c>
@@ -29394,8 +31063,11 @@
       <c r="M12" s="1">
         <v>6</v>
       </c>
+      <c r="N12" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>83</v>
       </c>
@@ -29432,8 +31104,11 @@
       <c r="M13" s="1">
         <v>6</v>
       </c>
+      <c r="N13" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>93</v>
       </c>
@@ -29470,8 +31145,11 @@
       <c r="M14" s="1">
         <v>7</v>
       </c>
+      <c r="N14" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>98</v>
       </c>
@@ -29508,8 +31186,11 @@
       <c r="M15" s="1">
         <v>6</v>
       </c>
+      <c r="N15" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>268</v>
       </c>
@@ -29546,8 +31227,11 @@
       <c r="M16" s="1">
         <v>6</v>
       </c>
+      <c r="N16" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>86</v>
       </c>
@@ -29584,8 +31268,11 @@
       <c r="M17" s="1">
         <v>7</v>
       </c>
+      <c r="N17" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>85</v>
       </c>
@@ -29622,8 +31309,11 @@
       <c r="M18" s="1">
         <v>6</v>
       </c>
+      <c r="N18" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>93</v>
       </c>
@@ -29660,8 +31350,11 @@
       <c r="M19" s="1">
         <v>9</v>
       </c>
+      <c r="N19" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>81</v>
       </c>
@@ -29698,8 +31391,11 @@
       <c r="M20" s="1">
         <v>7</v>
       </c>
+      <c r="N20" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>92</v>
       </c>
@@ -29736,8 +31432,11 @@
       <c r="M21" s="1">
         <v>7</v>
       </c>
+      <c r="N21" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>84</v>
       </c>
@@ -29774,8 +31473,11 @@
       <c r="M22" s="1">
         <v>9</v>
       </c>
+      <c r="N22" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>84</v>
       </c>
@@ -29812,8 +31514,11 @@
       <c r="M23" s="1">
         <v>7</v>
       </c>
+      <c r="N23" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>88</v>
       </c>
@@ -29841,8 +31546,11 @@
       <c r="M24" s="1">
         <v>7</v>
       </c>
+      <c r="N24" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>102</v>
       </c>
@@ -29870,8 +31578,11 @@
       <c r="M25" s="1">
         <v>6</v>
       </c>
+      <c r="N25" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>125</v>
       </c>
@@ -29899,8 +31610,11 @@
       <c r="M26" s="1">
         <v>7</v>
       </c>
+      <c r="N26" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>85</v>
       </c>
@@ -29928,8 +31642,11 @@
       <c r="M27" s="1">
         <v>6</v>
       </c>
+      <c r="N27" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>88</v>
       </c>
@@ -29957,8 +31674,11 @@
       <c r="M28" s="1">
         <v>6</v>
       </c>
+      <c r="N28" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>1283</v>
       </c>
@@ -29986,8 +31706,11 @@
       <c r="M29" s="1">
         <v>7</v>
       </c>
+      <c r="N29" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>80</v>
       </c>
@@ -30015,8 +31738,11 @@
       <c r="M30" s="1">
         <v>7</v>
       </c>
+      <c r="N30" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>84</v>
       </c>
@@ -30044,8 +31770,11 @@
       <c r="M31" s="1">
         <v>8</v>
       </c>
+      <c r="N31" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>84</v>
       </c>
@@ -30073,8 +31802,11 @@
       <c r="M32" s="1">
         <v>11</v>
       </c>
+      <c r="N32" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>82</v>
       </c>
@@ -30101,6 +31833,9 @@
       </c>
       <c r="M33" s="1">
         <v>9</v>
+      </c>
+      <c r="N33" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -30118,8 +31853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M33"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30169,6 +31904,9 @@
       <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -30210,6 +31948,9 @@
       <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
@@ -30248,7 +31989,9 @@
       <c r="M3" s="1">
         <v>5830</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1">
+        <v>6318</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
@@ -30289,7 +32032,9 @@
       <c r="M4" s="1">
         <v>3460</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1">
+        <v>3336</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
@@ -30330,7 +32075,9 @@
       <c r="M5" s="1">
         <v>1927</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1">
+        <v>2092</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
@@ -30371,7 +32118,9 @@
       <c r="M6" s="1">
         <v>2286</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>2003</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
@@ -30412,7 +32161,9 @@
       <c r="M7" s="1">
         <v>3071</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>3000</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
@@ -30453,7 +32204,9 @@
       <c r="M8" s="1">
         <v>34</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>35</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
@@ -30494,7 +32247,9 @@
       <c r="M9" s="1">
         <v>37</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>38</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
@@ -30535,7 +32290,9 @@
       <c r="M10" s="1">
         <v>38</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>38</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
@@ -30576,7 +32333,9 @@
       <c r="M11" s="1">
         <v>40</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>40</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
@@ -30617,7 +32376,9 @@
       <c r="M12" s="1">
         <v>37</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>35</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
@@ -30658,7 +32419,9 @@
       <c r="M13" s="1">
         <v>35</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>38</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
@@ -30699,7 +32462,9 @@
       <c r="M14" s="1">
         <v>38</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>38</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
@@ -30740,7 +32505,9 @@
       <c r="M15" s="1">
         <v>61</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>64</v>
+      </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
@@ -30781,7 +32548,9 @@
       <c r="M16" s="1">
         <v>1189</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>1068</v>
+      </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
@@ -30822,7 +32591,9 @@
       <c r="M17" s="1">
         <v>1212</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>1185</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
@@ -30863,7 +32634,9 @@
       <c r="M18" s="1">
         <v>34</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>33</v>
+      </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
@@ -30904,7 +32677,9 @@
       <c r="M19" s="1">
         <v>36</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>35</v>
+      </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
@@ -30945,7 +32720,9 @@
       <c r="M20" s="1">
         <v>34</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>36</v>
+      </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
@@ -30986,7 +32763,9 @@
       <c r="M21" s="1">
         <v>33</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>34</v>
+      </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
@@ -31027,7 +32806,9 @@
       <c r="M22" s="1">
         <v>36</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>33</v>
+      </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
@@ -31068,7 +32849,9 @@
       <c r="M23" s="1">
         <v>37</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>51</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
@@ -31100,7 +32883,9 @@
       <c r="M24" s="1">
         <v>33</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>77</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
@@ -31132,7 +32917,9 @@
       <c r="M25" s="1">
         <v>34</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>35</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
@@ -31164,7 +32951,9 @@
       <c r="M26" s="1">
         <v>36</v>
       </c>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1">
+        <v>35</v>
+      </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
@@ -31196,7 +32985,9 @@
       <c r="M27" s="1">
         <v>39</v>
       </c>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1">
+        <v>37</v>
+      </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
@@ -31228,7 +33019,9 @@
       <c r="M28" s="1">
         <v>52</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1">
+        <v>36</v>
+      </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
@@ -31260,7 +33053,9 @@
       <c r="M29" s="1">
         <v>38</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1">
+        <v>39</v>
+      </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
@@ -31292,7 +33087,9 @@
       <c r="M30" s="1">
         <v>35</v>
       </c>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1">
+        <v>38</v>
+      </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
@@ -31324,7 +33121,9 @@
       <c r="M31" s="1">
         <v>33</v>
       </c>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1">
+        <v>33</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
@@ -31356,7 +33155,9 @@
       <c r="M32" s="1">
         <v>33</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1">
+        <v>34</v>
+      </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
@@ -31388,7 +33189,9 @@
       <c r="M33" s="1">
         <v>38</v>
       </c>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1">
+        <v>40</v>
+      </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
@@ -31407,8 +33210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31458,7 +33261,9 @@
       <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="4"/>
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -31503,7 +33308,9 @@
       <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -31545,6 +33352,9 @@
       <c r="M3" s="1">
         <v>998</v>
       </c>
+      <c r="N3" s="1">
+        <v>988</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
@@ -31583,6 +33393,9 @@
       <c r="M4" s="1">
         <v>296</v>
       </c>
+      <c r="N4" s="1">
+        <v>256</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
@@ -31621,6 +33434,9 @@
       <c r="M5" s="1">
         <v>178</v>
       </c>
+      <c r="N5" s="1">
+        <v>208</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
@@ -31659,6 +33475,9 @@
       <c r="M6" s="1">
         <v>17</v>
       </c>
+      <c r="N6" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -31697,6 +33516,9 @@
       <c r="M7" s="1">
         <v>288</v>
       </c>
+      <c r="N7" s="1">
+        <v>271</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
@@ -31735,6 +33557,9 @@
       <c r="M8" s="1">
         <v>2</v>
       </c>
+      <c r="N8" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
@@ -31773,6 +33598,9 @@
       <c r="M9" s="1">
         <v>2</v>
       </c>
+      <c r="N9" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
@@ -31811,6 +33639,9 @@
       <c r="M10" s="1">
         <v>5</v>
       </c>
+      <c r="N10" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
@@ -31849,6 +33680,9 @@
       <c r="M11" s="1">
         <v>2</v>
       </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
@@ -31887,6 +33721,9 @@
       <c r="M12" s="1">
         <v>2</v>
       </c>
+      <c r="N12" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
@@ -31925,6 +33762,9 @@
       <c r="M13" s="1">
         <v>2</v>
       </c>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
@@ -31963,6 +33803,9 @@
       <c r="M14" s="1">
         <v>2</v>
       </c>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
@@ -32001,6 +33844,9 @@
       <c r="M15" s="1">
         <v>4</v>
       </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
@@ -32039,8 +33885,11 @@
       <c r="M16" s="1">
         <v>2</v>
       </c>
+      <c r="N16" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>27</v>
       </c>
@@ -32077,8 +33926,11 @@
       <c r="M17" s="1">
         <v>4</v>
       </c>
+      <c r="N17" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>33</v>
       </c>
@@ -32115,8 +33967,11 @@
       <c r="M18" s="1">
         <v>5</v>
       </c>
+      <c r="N18" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>29</v>
       </c>
@@ -32153,8 +34008,11 @@
       <c r="M19" s="1">
         <v>4</v>
       </c>
+      <c r="N19" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>30</v>
       </c>
@@ -32191,8 +34049,11 @@
       <c r="M20" s="1">
         <v>4</v>
       </c>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>175</v>
       </c>
@@ -32229,8 +34090,11 @@
       <c r="M21" s="1">
         <v>3</v>
       </c>
+      <c r="N21" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>27</v>
       </c>
@@ -32267,8 +34131,11 @@
       <c r="M22" s="1">
         <v>4</v>
       </c>
+      <c r="N22" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>31</v>
       </c>
@@ -32305,8 +34172,11 @@
       <c r="M23" s="1">
         <v>4</v>
       </c>
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E24" s="1">
         <v>32</v>
       </c>
@@ -32334,8 +34204,11 @@
       <c r="M24" s="1">
         <v>3</v>
       </c>
+      <c r="N24" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E25" s="1">
         <v>33</v>
       </c>
@@ -32363,8 +34236,11 @@
       <c r="M25" s="1">
         <v>3</v>
       </c>
+      <c r="N25" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E26" s="1">
         <v>35</v>
       </c>
@@ -32392,8 +34268,11 @@
       <c r="M26" s="1">
         <v>5</v>
       </c>
+      <c r="N26" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E27" s="1">
         <v>32</v>
       </c>
@@ -32421,8 +34300,11 @@
       <c r="M27" s="1">
         <v>23</v>
       </c>
+      <c r="N27" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E28" s="1">
         <v>31</v>
       </c>
@@ -32450,8 +34332,11 @@
       <c r="M28" s="1">
         <v>3</v>
       </c>
+      <c r="N28" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>33</v>
       </c>
@@ -32479,8 +34364,11 @@
       <c r="M29" s="1">
         <v>3</v>
       </c>
+      <c r="N29" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>31</v>
       </c>
@@ -32508,8 +34396,11 @@
       <c r="M30" s="1">
         <v>4</v>
       </c>
+      <c r="N30" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>32</v>
       </c>
@@ -32537,8 +34428,11 @@
       <c r="M31" s="1">
         <v>4</v>
       </c>
+      <c r="N31" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>31</v>
       </c>
@@ -32566,8 +34460,11 @@
       <c r="M32" s="1">
         <v>8</v>
       </c>
+      <c r="N32" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>34</v>
       </c>
@@ -32594,6 +34491,9 @@
       </c>
       <c r="M33" s="1">
         <v>5</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/org.metaborg.lang.tiger.example/microbenchmarks/graalvm-timings.xlsx
+++ b/org.metaborg.lang.tiger.example/microbenchmarks/graalvm-timings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="32740" windowHeight="20540" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="32740" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="branching" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="19">
   <si>
     <t>Exc native</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>b80d0d1 -- fast eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -15081,7 +15084,7 @@
                   <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>36.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>39.0</c:v>
@@ -22452,15 +22455,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22486,16 +22489,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22782,8 +22785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N33"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27979,8 +27982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N33"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29270,7 +29273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3:N33"/>
     </sheetView>
   </sheetViews>
@@ -31853,8 +31856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33019,8 +33022,8 @@
       <c r="M28" s="1">
         <v>52</v>
       </c>
-      <c r="N28" s="1">
-        <v>36</v>
+      <c r="N28" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -33210,7 +33213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
